--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey_v.1.0.2\Dependencies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7100B52-55F9-4A96-A890-5DE786056D1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B436CA34-F652-4D96-AE9A-9E7059896D21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="4" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
     <sheet name="Example2" sheetId="4" r:id="rId2"/>
     <sheet name="HILIC" sheetId="5" r:id="rId3"/>
+    <sheet name="RP Acq" sheetId="6" r:id="rId4"/>
+    <sheet name="RP Hep" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="711">
   <si>
     <t>Concentration</t>
   </si>
@@ -1356,6 +1358,810 @@
   </si>
   <si>
     <t>AR-NorVal_118_72_DP_50_CE_15_qual</t>
+  </si>
+  <si>
+    <t>FA-C10_171.1_171.1_DP_-60_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C10_171.1_171.1_DP_-60_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C11_185.2_185.2_DP_-80_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C11_185.2_185.2_DP_-80_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C12_199.2_199.2_DP_-80_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C12_199.2_199.2_DP_-80_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C13_213.2_213.2_DP_-70_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C13_213.2_213.2_DP_-70_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C14_227.2_227.2_DP_-95_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C14_227.2_227.2_DP_-95_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C15:1_239.2_239.2_DP_-80_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C15:1_239.2_239.2_DP_-80_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C15_241.2_241.2_DP_-60_CE_-20_quan</t>
+  </si>
+  <si>
+    <t>FA-C15_241.2_241.2_DP_-60_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>FA-C16:1_253.2_253.2_DP_-90_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C16:1_253.2_253.2_DP_-90_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C16_255.2_255.2_DP_-100_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C16_255.2_255.2_DP_-100_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C17:1_267.2_267.2_DP_-90_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C17:1_267.2_267.2_DP_-90_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C18:3(-3)(-6)_277.2_277.2_DP_-100_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C18:3(-3)(-6)_277.2_277.2_DP_-100_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C18:2_279.2_279.2_DP_-100_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C18:2_279.2_279.2_DP_-100_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C18:1_281.3_281.3_DP_-110_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C18:1_281.3_281.3_DP_-110_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C18_283.3_283.3_DP_-110_CE_-30_quan</t>
+  </si>
+  <si>
+    <t>FA-C18_283.3_283.3_DP_-110_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>FA-C20:4_303.2_303.2_DP_-90_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C20:4_303.2_303.2_DP_-90_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C20:1_309.3_309.3_DP_-110_CE_-30_quan</t>
+  </si>
+  <si>
+    <t>FA-C20:1_309.3_309.3_DP_-110_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-TLCAS_482.3_482.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-TLCA_482.3_482.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-TLCAS_482.3_80_DP_-150_CE_-120_qual</t>
+  </si>
+  <si>
+    <t>BA-TLCA_482.3_80_DP_-150_CE_-120_qual</t>
+  </si>
+  <si>
+    <t>BA-TCA_514.3_514.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>CA-BenA_121_121_DP_-40_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>CA-BenA_121_77_DP_-40_CE_-20_qual</t>
+  </si>
+  <si>
+    <t>CA-KetoLeu_129_129_DP_-50_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>CA-KetoLeu_129_85_DP_-50_CE_-15_qual</t>
+  </si>
+  <si>
+    <t>CA-OHBenA_137_65_DP_-50_CE_-40_qual</t>
+  </si>
+  <si>
+    <t>CA-OHBenA_137_93_DP_-50_CE_-25_quan</t>
+  </si>
+  <si>
+    <t>CA-PhPA_149_105_DP_-50_CE_-15_qual</t>
+  </si>
+  <si>
+    <t>CA-PhPA_149_149_DP_-50_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>CA-3OHPhAA_151_107_DP_-55_CE_-15_quan</t>
+  </si>
+  <si>
+    <t>CA-OHPhPA_165_106_DP_-70_CE_-35_qual</t>
+  </si>
+  <si>
+    <t>CA-OHPhPA_165_121_DP_-70_CE_-20_quan</t>
+  </si>
+  <si>
+    <t>FA-C10(OH)_187.1_141.1_DP_-65_CE_-25_qual</t>
+  </si>
+  <si>
+    <t>FA-C10(OH)_187.1_187.1_DP_-65_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>CA-FerA_193_134_DP_-50_CE_-25_quan</t>
+  </si>
+  <si>
+    <t>CA-FerA_193_178_DP_-50_CE_-20_qual</t>
+  </si>
+  <si>
+    <t>AR-IndSulf_212_132_DP_-60_CE_-25_qual</t>
+  </si>
+  <si>
+    <t>AR-IndSulf_212_80_DP_-60_CE_-35_quan</t>
+  </si>
+  <si>
+    <t>FA-C14(DC)_257.2_195_DP_-60_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C14(DC)_257.2_239_DP_-60_CE_-28_quan</t>
+  </si>
+  <si>
+    <t>CA-AbsA_263.1_153.1_DP_-80_CE_-18_quan</t>
+  </si>
+  <si>
+    <t>CA-AbsA_263.1_219.1_DP_-80_CE_-20_qual</t>
+  </si>
+  <si>
+    <t>FA-C22:6_327.2_283.2_DP_-90_CE_-18_qual</t>
+  </si>
+  <si>
+    <t>FA-C22:6_327.2_327.2_DP_-90_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>PG-E2_351.2_271.2_DP_-70_CE_-25_quan</t>
+  </si>
+  <si>
+    <t>PG-E2_351.2_315.2_DP_-70_CE_-20_qual</t>
+  </si>
+  <si>
+    <t>PG-F2a_353.2_193.1_DP_-90_CE_-35_qual</t>
+  </si>
+  <si>
+    <t>PG-F2a_353.2_309.2_DP_-90_CE_-30_quan</t>
+  </si>
+  <si>
+    <t>FA-C20_357.3_311.3_DP_-40_CE_-20_quan</t>
+  </si>
+  <si>
+    <t>FA-C20_357.3_357.3_DP_-40_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-DCA_391.3_345.3_DP_-150_CE_-50_qual</t>
+  </si>
+  <si>
+    <t>ST-DihydroCort_407.2_303.2_DP_-60_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>ST-DihydroCort_407.2_331.2_DP_-60_CE_-25_quan</t>
+  </si>
+  <si>
+    <t>BA-GCA_464.3_464.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GCA_464.3_74_DP_-150_CE_-65_qual</t>
+  </si>
+  <si>
+    <t>BA-UDCA_HDCA_sum_391.3_391.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-UDCA_HDCA_sum_tail_391.3_391.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-CDCA_DCA_391.3_391.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-CDCA_first peak_391.3_391.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-DCA_second peak_391.3_391.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GHDCA_448.3_448.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GCDCA_448.3_448.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GDCA_448.3_448.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GHDCA_448.3_74_DP_-150_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-GCDCA_448.3_74_DP_-150_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-GDCA_448.3_74_DP_-150_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-THDCA_498.3_498.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-THDCA_tail_498.3_498_3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-TDCA_498.3_498.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-THDCA_498.3_80_DP_-150_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-THDCA_tail_498.3_80_DP_-150_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-TDCA_498.3_80_DP_-150_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BGA-Benzamide_122.1_105_DP_70_CE_20_quan</t>
+  </si>
+  <si>
+    <t>BGA-Benzamide_122.1_77_DP_70_CE_35_qual</t>
+  </si>
+  <si>
+    <t>AR-IAA_176.1_103_DP_60_CE_45_qual</t>
+  </si>
+  <si>
+    <t>AR-IAA_176.1_130_DP_60_CE_25_quan</t>
+  </si>
+  <si>
+    <t>AR-Hipp_180.1_105_DP_50_CE_15_quan</t>
+  </si>
+  <si>
+    <t>AR-Hipp_180.1_77_DP_50_CE_45_qual</t>
+  </si>
+  <si>
+    <t>AR-IPA_190.1_130_DP_60_CE_25_quan</t>
+  </si>
+  <si>
+    <t>AR-IPA_190.1_172_DP_60_CE_20_qual</t>
+  </si>
+  <si>
+    <t>AR-PAG_194.1_76_DP_50_CE_15_qual</t>
+  </si>
+  <si>
+    <t>AR-PAG_194.1_91_DP_50_CE_35_quan</t>
+  </si>
+  <si>
+    <t>AR-AcTyr_224.1_136_DP_60_CE_35_quan</t>
+  </si>
+  <si>
+    <t>AR-AcTyr_224.1_182.1_DP_60_CE_15_qual</t>
+  </si>
+  <si>
+    <t>FAA-C18:2_324.3_44_DP_70_CE_65_qual</t>
+  </si>
+  <si>
+    <t>FAA-C18:2_324.3_62_DP_70_CE_35_quan</t>
+  </si>
+  <si>
+    <t>FAA-C18:1_326.3_309.3_DP_70_CE_20_qual</t>
+  </si>
+  <si>
+    <t>FAA-C18:1_326.3_62_DP_70_CE_38_quan</t>
+  </si>
+  <si>
+    <t>FAA-C18_328.3_44_DP_60_CE_60_qual</t>
+  </si>
+  <si>
+    <t>FAA-C18_328.3_62_DP_60_CE_33_quan</t>
+  </si>
+  <si>
+    <t>ST-Cortex_347.2_109.1_DP_75_CE_50_quan</t>
+  </si>
+  <si>
+    <t>ST-Cortex_347.2_97_DP_75_CE_40_qual</t>
+  </si>
+  <si>
+    <t>FAA-C20:4_348.3_62_DP_60_CE_35_quan</t>
+  </si>
+  <si>
+    <t>FAA-C20:4_348.3_91_DP_60_CE_70_qual</t>
+  </si>
+  <si>
+    <t>BA-CDCA_357.3_119_DP_60_CE_55_qual</t>
+  </si>
+  <si>
+    <t>BA-HDCA_357.3_161.3_DP_60_CE_35_quan</t>
+  </si>
+  <si>
+    <t>ST-Cort_361.2_163.1_DP_80_CE_35_quan</t>
+  </si>
+  <si>
+    <t>ST-Cort_361.2_343.2_DP_80_CE_27_qual</t>
+  </si>
+  <si>
+    <t>AR-NAGly_362.3_269.2_DP_100_CE_23_qual</t>
+  </si>
+  <si>
+    <t>AR-NAGly_362.3_287.2_DP_100_CE_25_quan</t>
+  </si>
+  <si>
+    <t>ST-Cortisol_363.2_121.1_DP_80_CE_40_qual</t>
+  </si>
+  <si>
+    <t>ST-Cortisol_363.2_327.2_DP_80_CE_25_quan</t>
+  </si>
+  <si>
+    <t>PG-D2_370.2_299.2_DP_60_CE_20_qual</t>
+  </si>
+  <si>
+    <t>PG-D2_370.2_335.2_DP_60_CE_15_quan</t>
+  </si>
+  <si>
+    <t>FAA-C22:6_372.4_62_DP_70_CE_40_qual</t>
+  </si>
+  <si>
+    <t>FAA-C22:6_372.4_91_DP_70_CE_70_quan</t>
+  </si>
+  <si>
+    <t>BA-UDCA_375.3_357.3_DP_70_CE_20_qual</t>
+  </si>
+  <si>
+    <t>PG-E2-EtA_378.3_342.3_DP_80_CE_20_qual</t>
+  </si>
+  <si>
+    <t>PG-E2-EtA_378.3_360.3_DP_80_CE_15_quan</t>
+  </si>
+  <si>
+    <t>PG-F2a-EtA_380.3_283.3_DP_60_CE_20_qual</t>
+  </si>
+  <si>
+    <t>PG-F2a-EtA_380.3_344.3_DP_60_CE_17_quan</t>
+  </si>
+  <si>
+    <t>ST-VitD2_397.3_379.3_DP_80_CE_20_qual</t>
+  </si>
+  <si>
+    <t>ST-VitD2_397.3_397.3_DP_80_CE_8_quan</t>
+  </si>
+  <si>
+    <t>ST-ketoChol_401.3_401.3_DP_90_CE_8_quan</t>
+  </si>
+  <si>
+    <t>ST-ketoChol_401.3_95_DP_90_CE_55_qual</t>
+  </si>
+  <si>
+    <t>LPC-C18:0_524.4_104_DP_80_CE_35_qual</t>
+  </si>
+  <si>
+    <t>LPC-C18:0_524.4_184.1_DP_80_CE_38_quan</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 8</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 7</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 6</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 5</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 4</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 3</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 2</t>
+  </si>
+  <si>
+    <t>RP Acq Cal 1</t>
+  </si>
+  <si>
+    <t>FA-C20:3_305.3_305.3_DP_-100_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C20:3_305.3_305.3_DP_-100_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C20:2_307.3_307.3_DP_-100_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>FA-C20:2_307.3_307.3_DP_-100_CE_-30_qual</t>
+  </si>
+  <si>
+    <t>FA-C22:2_335.3_335.3_DP_-120_CE_-30_quan</t>
+  </si>
+  <si>
+    <t>FA-C22:2_335.3_335.3_DP_-120_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>FA-C22:1_337.3_337.3_DP_-110_CE_-30_quan</t>
+  </si>
+  <si>
+    <t>FA-C22:1_337.3_337.3_DP_-110_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>FA-C24:1_365.3_365.3_DP_-120_CE_-30_quan</t>
+  </si>
+  <si>
+    <t>FA-C24:1_365.3_365.3_DP_-120_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>ST-DHEAS_367.2_367.2_DP_-120_CE_-8_qual</t>
+  </si>
+  <si>
+    <t>BA-TMCA_514.3_514.3_DP_-190_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-TMCA_514.3_80.1_DP_-190_CE_-90_qual</t>
+  </si>
+  <si>
+    <t>FA-C12(DC)_229.1_167_DP_-60_CE_-28_qual</t>
+  </si>
+  <si>
+    <t>FA-C12(DC)_229.1_211.1_DP_-60_CE_-25_quan</t>
+  </si>
+  <si>
+    <t>CA-CUDA_339.3_214.1_DP_-60_CE_-30_quan</t>
+  </si>
+  <si>
+    <t>CA-CUDA_339.3_240_DP_-60_CE_-25_qual</t>
+  </si>
+  <si>
+    <t>ST-DHEAS_367.2_97_DP_-120_CE_-60_quan</t>
+  </si>
+  <si>
+    <t>BA-LCA_375.3_375.3_DP_-140_CE_-40_quan</t>
+  </si>
+  <si>
+    <t>BA-CA_407.3_343.3_DP_-180_CE_-50_qual</t>
+  </si>
+  <si>
+    <t>BA-CA_407.3_407.3_DP_-180_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GLCA_432.3_432.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GLCA_432.3_74_DP_-150_CE_-65_qual</t>
+  </si>
+  <si>
+    <t>BA-GUDCA_448.3_448.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GUDCA_448.3_74_DP_-150_CE_-65_qual</t>
+  </si>
+  <si>
+    <t>BA-TUDCA_498.3_498.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-TUDCA_498.3_80_DP_-150_CE_-115_qual</t>
+  </si>
+  <si>
+    <t>BA-GUDCA_tail_448.3_448.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-GUDCA_tail_448.3_74_DP_-150_CE_-65_qual</t>
+  </si>
+  <si>
+    <t>BA-TUDCA_tail_498.3_498.3_DP_-150_CE_-8_quan</t>
+  </si>
+  <si>
+    <t>BA-TUDCA_tail_498.3_80_DP_-150_CE_-115_qual</t>
+  </si>
+  <si>
+    <t>ST-DehydroChol_367.3_367.3_DP_90_CE_8_quan</t>
+  </si>
+  <si>
+    <t>ST-Chol_369.4_369.4_DP_90_CE_8_quan</t>
+  </si>
+  <si>
+    <t>ST-Chol_369.4_369.4_DP_90_CE_30_qual</t>
+  </si>
+  <si>
+    <t>ST-MeChol_383.4_383.4_DP_90_CE_8_quan</t>
+  </si>
+  <si>
+    <t>ST-MeChol_383.4_383.4_DP_90_CE_30_qual</t>
+  </si>
+  <si>
+    <t>FAA-C16:1_298.3_281.2_DP_70_CE_22_qual</t>
+  </si>
+  <si>
+    <t>FAA-C16:1_298.3_62_DP_70_CE_30_quan</t>
+  </si>
+  <si>
+    <t>FAA-C16_300.3_44_DP_65_CE_62_qual</t>
+  </si>
+  <si>
+    <t>FAA-C16_300.3_62_DP_65_CE_33_quan</t>
+  </si>
+  <si>
+    <t>FAA-C20:5_346.3_62_DP_60_CE_30_quan</t>
+  </si>
+  <si>
+    <t>FAA-C20:5_346.3_91_DP_60_CE_65_qual</t>
+  </si>
+  <si>
+    <t>TX-B2_353.2_317.2_DP_60_CE_15_qual</t>
+  </si>
+  <si>
+    <t>TX-B2_353.2_335.2_DP_60_CE_15_quan</t>
+  </si>
+  <si>
+    <t>BA-LCA_359.3_359.3_DP_70_CE_8_qual</t>
+  </si>
+  <si>
+    <t>ST-DehydroChol_367.3_161.1_DP_90_CE_25_qual</t>
+  </si>
+  <si>
+    <t>FAA-C22:4_376.3_62_DP_70_CE_40_quan</t>
+  </si>
+  <si>
+    <t>FAA-C22:4_376.3_91_DP_70_CE_70_qual</t>
+  </si>
+  <si>
+    <t>ST-DehydroErgo_377.3_157_DP_80_CE_45_qual</t>
+  </si>
+  <si>
+    <t>ST-DehydroErgo_377.3_377.3_DP_80_CE_8_quan</t>
+  </si>
+  <si>
+    <t>MG-C20:4_379.3_269.1_DP_80_CE_25_qual</t>
+  </si>
+  <si>
+    <t>MG-C20:4_379.3_287.2_DP_80_CE_20_quan</t>
+  </si>
+  <si>
+    <t>ST-Stigma_395.4_69_DP_90_CE_45_qual</t>
+  </si>
+  <si>
+    <t>LPC-C14:0_468.3_104_DP_100_CE_32_qual</t>
+  </si>
+  <si>
+    <t>LPC-C14:0_468.3_184.1_DP_100_CE_35_quan</t>
+  </si>
+  <si>
+    <t>LPC-C16:0_496.3_104_DP_100_CE_35_qual</t>
+  </si>
+  <si>
+    <t>LPC-C16:0_496.3_184.1_DP_100_CE_35_quan</t>
+  </si>
+  <si>
+    <t>LPC-C17:0_510.4_104_DP_120_CE_40_qual</t>
+  </si>
+  <si>
+    <t>LPC-C17:0_510.4_184_DP_120_CE_40_quan</t>
+  </si>
+  <si>
+    <t>Cer(d18:1/16:0)_520.5_264.2_DP_206_CE_33_quan</t>
+  </si>
+  <si>
+    <t>Cer(d18:1/16:0)_520.5_282.3_DP_206_CE_40_qual</t>
+  </si>
+  <si>
+    <t>LPC-C18:1_522.4_104_DP_80_CE_38_qual</t>
+  </si>
+  <si>
+    <t>LPC-C18:1_522.4_184.1_DP_80_CE_40_quan</t>
+  </si>
+  <si>
+    <t>Cer(d18:1/18:0)_548.6_264.2_DP_211_CE_35_quan</t>
+  </si>
+  <si>
+    <t>Cer(d18:1/18:0)_548.6_282.2_DP_211_CE_35_qual</t>
+  </si>
+  <si>
+    <t>DHCer(d18:0/18:0)_568.6_284.3_DP_121_CE_45_qual</t>
+  </si>
+  <si>
+    <t>DHCer(d18:0/18:0)_568.6_550.6_DP_121_CE_30_quan</t>
+  </si>
+  <si>
+    <t>CE-C14_614.6_369.3_DP_200_CE_23_quan</t>
+  </si>
+  <si>
+    <t>CE-C16:1_640.6_369.3_DP_200_CE_27_quan</t>
+  </si>
+  <si>
+    <t>DHCer(d18:0/24:0)_652.7_284.3_DP_60_CE_49_qual</t>
+  </si>
+  <si>
+    <t>DHCer(d18:0/24:0)_652.7_634.6_DP_60_CE_30_quan</t>
+  </si>
+  <si>
+    <t>CE-C18:2_666.6_161.1_DP_220_CE_40_qual</t>
+  </si>
+  <si>
+    <t>CE-C18:2_666.6_369.2_DP_220_CE_25_quan</t>
+  </si>
+  <si>
+    <t>CE-C20:5_688.6_147.2_DP_100_CE_60_quan</t>
+  </si>
+  <si>
+    <t>CE-C20:5_688.6_161.2_DP_100_CE_60_qual</t>
+  </si>
+  <si>
+    <t>SM-C16_703.6_184.1_DP_100_CE_40_quan</t>
+  </si>
+  <si>
+    <t>SM-C16_703.6_86_DP_100_CE_80_qual</t>
+  </si>
+  <si>
+    <t>PC-aaC30:0_706.5_125.1_DP_130_CE_90_qual</t>
+  </si>
+  <si>
+    <t>PC-aaC30:0_706.5_184.1_DP_130_CE_45_quan</t>
+  </si>
+  <si>
+    <t>CE-C22:5_716.6_147.1_DP_220_CE_50_qual</t>
+  </si>
+  <si>
+    <t>CE-C22:5_716.6_369.3_DP_220_CE_30_quan</t>
+  </si>
+  <si>
+    <t>PC-aeC32:1_718.6_184_DP_140_CE_40_quan</t>
+  </si>
+  <si>
+    <t>PC-aeC32:1_718.6_86.1_DP_140_CE_85_qual</t>
+  </si>
+  <si>
+    <t>SM C18:1_729.6_184_DP_117_CE_38_quan</t>
+  </si>
+  <si>
+    <t>SM C18:1_729.6_86_DP_117_CE_113_qual</t>
+  </si>
+  <si>
+    <t>PC-aaC32:0_730.5_184_DP_140_CE_40_quan</t>
+  </si>
+  <si>
+    <t>PC-aaC32:0_730.5_86.1_DP_140_CE_80_qual</t>
+  </si>
+  <si>
+    <t>PC ae C34:1_746.6_125.1_DP_121_CE_119_qual</t>
+  </si>
+  <si>
+    <t>PC ae C34:1_746.6_184_DP_121_CE_39_quan</t>
+  </si>
+  <si>
+    <t>PC-aaC36:4_768.6_184.1_DP_130_CE_45_quan</t>
+  </si>
+  <si>
+    <t>PC-aaC36:4_768.6_86.1_DP_130_CE_90_qual</t>
+  </si>
+  <si>
+    <t>PC-aaC36:2_786.6_184.1_DP_140_CE_45_quan</t>
+  </si>
+  <si>
+    <t>PC-aaC36:2_786.6_86.1_DP_140_CE_90_qual</t>
+  </si>
+  <si>
+    <t>PC-aaC36:1_788.6_184.1_DP_140_CE_45_quan</t>
+  </si>
+  <si>
+    <t>PC-aaC36:1_788.6_86.1_DP_140_CE_90_qual</t>
+  </si>
+  <si>
+    <t>PC-aaC36:0_790.6_184.1_DP_90_CE_45_quan</t>
+  </si>
+  <si>
+    <t>PC-aaC36:0_790.6_86.1_DP_90_CE_90_qual</t>
+  </si>
+  <si>
+    <t>PC-aaC38:4_810.6_184.1_DP_130_CE_45_quan</t>
+  </si>
+  <si>
+    <t>PC-aaC38:4_810.6_86.1_DP_130_CE_90_qual</t>
+  </si>
+  <si>
+    <t>TG-C50:1_850.8_551.4_DP_100_CE_35_qual</t>
+  </si>
+  <si>
+    <t>TG-C50:1_850.8_577.4_DP_100_CE_45_quan</t>
+  </si>
+  <si>
+    <t>Hex2Cer(d18:1/16:0)_862.6_264.2_DP_131_CE_51_quan</t>
+  </si>
+  <si>
+    <t>Hex2Cer(d18:1/16:0)_862.6_844.6_DP_131_CE_30_qual</t>
+  </si>
+  <si>
+    <t>TG-C52:4_872.8_575.5_DP_120_CE_40_quan</t>
+  </si>
+  <si>
+    <t>TG-C52:4_872.8_599.5_DP_120_CE_42_qual</t>
+  </si>
+  <si>
+    <t>TG-C52:2_876.8_577.5_DP_100_CE_40_quan</t>
+  </si>
+  <si>
+    <t>TG-C52:2_876.8_603.6_DP_100_CE_40_qual</t>
+  </si>
+  <si>
+    <t>ST-EpoxyChol_385.4_385.4_DP_90_CE_8_quan</t>
+  </si>
+  <si>
+    <t>ST-EpoxyChol_385.4_367.3_DP_90_CE_20_qual</t>
+  </si>
+  <si>
+    <t>ST-VitD3_385.4_384.4_DP_90_CE_3_quan</t>
+  </si>
+  <si>
+    <t>ST-VitD3_385.4_367.3_DP_90_CE_20_qual</t>
+  </si>
+  <si>
+    <t>ST-DiOHChonol_385.4_385.4_DP_90_CE_3_quan</t>
+  </si>
+  <si>
+    <t>ST-DiOHChonol_385.4_367.3_DP_90_CE_20_qual</t>
+  </si>
+  <si>
+    <t>ST-27OHChol_385.4_385.4_DP_90_CE_3_quan?</t>
+  </si>
+  <si>
+    <t>ST-27OHChol_385.4_161.1_DP_80_CE_30_qual1?</t>
+  </si>
+  <si>
+    <t>ST-27OHChol_385.4_367.3_DP_80_CE_30_qual2?</t>
+  </si>
+  <si>
+    <t>ST-OHVitD2_395.3_395.3_DP_80_CE_8_quan_?</t>
+  </si>
+  <si>
+    <t>ST-OHVitD2_395.3_377.3_DP_80_CE_20_qual_must</t>
+  </si>
+  <si>
+    <t>ST-Stigma_395.3_395.3_DP_80_CE_8_quan</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 8</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 7</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 6</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 5</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 4</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 3</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 2</t>
+  </si>
+  <si>
+    <t>RP Hep Cal 1</t>
   </si>
 </sst>
 </file>
@@ -7602,7 +8408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E21D4-36CC-47FB-831F-BC82468134F4}">
   <dimension ref="A1:HF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -13407,4 +14213,6928 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00108A2-6F53-4E74-9C3B-0EA16256D348}">
+  <dimension ref="A1:ED9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:ED9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R1" t="s">
+        <v>459</v>
+      </c>
+      <c r="S1" t="s">
+        <v>460</v>
+      </c>
+      <c r="T1" t="s">
+        <v>461</v>
+      </c>
+      <c r="U1" t="s">
+        <v>462</v>
+      </c>
+      <c r="V1" t="s">
+        <v>463</v>
+      </c>
+      <c r="W1" t="s">
+        <v>464</v>
+      </c>
+      <c r="X1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>494</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>498</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>500</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>504</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>507</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>508</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>509</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>510</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>512</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>513</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>514</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>515</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>516</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>520</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>521</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>522</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>523</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>558</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>559</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>560</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>561</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>562</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>563</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>564</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>565</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>566</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>567</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>568</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>569</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>570</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>571</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>572</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>573</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>574</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>7.5</v>
+      </c>
+      <c r="I2">
+        <v>7.5</v>
+      </c>
+      <c r="J2">
+        <v>7.5</v>
+      </c>
+      <c r="K2">
+        <v>7.5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>7.5</v>
+      </c>
+      <c r="O2">
+        <v>7.5</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+      <c r="U2">
+        <v>15</v>
+      </c>
+      <c r="V2">
+        <v>15</v>
+      </c>
+      <c r="W2">
+        <v>15</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>0.9</v>
+      </c>
+      <c r="AA2">
+        <v>0.9</v>
+      </c>
+      <c r="AB2">
+        <v>15</v>
+      </c>
+      <c r="AC2">
+        <v>15</v>
+      </c>
+      <c r="AD2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>0.9</v>
+      </c>
+      <c r="AI2">
+        <v>0.3</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9</v>
+      </c>
+      <c r="AK2">
+        <v>0.3</v>
+      </c>
+      <c r="AL2">
+        <v>0.3</v>
+      </c>
+      <c r="AM2">
+        <v>15</v>
+      </c>
+      <c r="AN2">
+        <v>15</v>
+      </c>
+      <c r="AO2">
+        <v>15</v>
+      </c>
+      <c r="AP2">
+        <v>15</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>3</v>
+      </c>
+      <c r="AS2">
+        <v>15</v>
+      </c>
+      <c r="AT2">
+        <v>15</v>
+      </c>
+      <c r="AU2">
+        <v>15</v>
+      </c>
+      <c r="AV2">
+        <v>7.5</v>
+      </c>
+      <c r="AW2">
+        <v>7.5</v>
+      </c>
+      <c r="AX2">
+        <v>7.5</v>
+      </c>
+      <c r="AY2">
+        <v>7.5</v>
+      </c>
+      <c r="AZ2">
+        <v>0.3</v>
+      </c>
+      <c r="BA2">
+        <v>0.3</v>
+      </c>
+      <c r="BB2">
+        <v>0.09</v>
+      </c>
+      <c r="BC2">
+        <v>0.09</v>
+      </c>
+      <c r="BD2">
+        <v>0.9</v>
+      </c>
+      <c r="BE2">
+        <v>0.9</v>
+      </c>
+      <c r="BF2">
+        <v>0.3</v>
+      </c>
+      <c r="BG2">
+        <v>0.3</v>
+      </c>
+      <c r="BH2">
+        <v>3</v>
+      </c>
+      <c r="BI2">
+        <v>3</v>
+      </c>
+      <c r="BJ2">
+        <v>0.3</v>
+      </c>
+      <c r="BK2">
+        <v>0.3</v>
+      </c>
+      <c r="BL2">
+        <v>0.3</v>
+      </c>
+      <c r="BM2">
+        <v>0.3</v>
+      </c>
+      <c r="BN2">
+        <v>7.5</v>
+      </c>
+      <c r="BO2">
+        <v>7.5</v>
+      </c>
+      <c r="BP2">
+        <v>0.9</v>
+      </c>
+      <c r="BQ2">
+        <v>0.03</v>
+      </c>
+      <c r="BR2">
+        <v>0.03</v>
+      </c>
+      <c r="BS2">
+        <v>0.3</v>
+      </c>
+      <c r="BT2">
+        <v>0.3</v>
+      </c>
+      <c r="BU2">
+        <v>0.9</v>
+      </c>
+      <c r="BV2">
+        <v>0.9</v>
+      </c>
+      <c r="BW2">
+        <v>15</v>
+      </c>
+      <c r="BX2">
+        <v>15</v>
+      </c>
+      <c r="BY2">
+        <v>0.9</v>
+      </c>
+      <c r="BZ2">
+        <v>0.3</v>
+      </c>
+      <c r="CA2">
+        <v>0.3</v>
+      </c>
+      <c r="CB2">
+        <v>0.3</v>
+      </c>
+      <c r="CC2">
+        <v>0.3</v>
+      </c>
+      <c r="CD2">
+        <v>0.3</v>
+      </c>
+      <c r="CE2">
+        <v>0.3</v>
+      </c>
+      <c r="CF2">
+        <v>0.9</v>
+      </c>
+      <c r="CG2">
+        <v>0.9</v>
+      </c>
+      <c r="CH2">
+        <v>0.9</v>
+      </c>
+      <c r="CI2">
+        <v>0.9</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9</v>
+      </c>
+      <c r="CK2">
+        <v>0.9</v>
+      </c>
+      <c r="CL2">
+        <v>0.15</v>
+      </c>
+      <c r="CM2">
+        <v>0.15</v>
+      </c>
+      <c r="CN2">
+        <v>0.6</v>
+      </c>
+      <c r="CO2">
+        <v>0.6</v>
+      </c>
+      <c r="CP2">
+        <v>3</v>
+      </c>
+      <c r="CQ2">
+        <v>3</v>
+      </c>
+      <c r="CR2">
+        <v>0.75</v>
+      </c>
+      <c r="CS2">
+        <v>0.75</v>
+      </c>
+      <c r="CT2">
+        <v>1.5</v>
+      </c>
+      <c r="CU2">
+        <v>1.5</v>
+      </c>
+      <c r="CV2">
+        <v>3</v>
+      </c>
+      <c r="CW2">
+        <v>3</v>
+      </c>
+      <c r="CX2">
+        <v>0.3</v>
+      </c>
+      <c r="CY2">
+        <v>0.3</v>
+      </c>
+      <c r="CZ2">
+        <v>0.3</v>
+      </c>
+      <c r="DA2">
+        <v>0.3</v>
+      </c>
+      <c r="DB2">
+        <v>0.03</v>
+      </c>
+      <c r="DC2">
+        <v>0.03</v>
+      </c>
+      <c r="DD2">
+        <v>0.15</v>
+      </c>
+      <c r="DE2">
+        <v>0.15</v>
+      </c>
+      <c r="DF2">
+        <v>0.09</v>
+      </c>
+      <c r="DG2">
+        <v>0.09</v>
+      </c>
+      <c r="DH2">
+        <v>0.3</v>
+      </c>
+      <c r="DI2">
+        <v>0.3</v>
+      </c>
+      <c r="DJ2">
+        <v>0.15</v>
+      </c>
+      <c r="DK2">
+        <v>0.15</v>
+      </c>
+      <c r="DL2">
+        <v>1.5</v>
+      </c>
+      <c r="DM2">
+        <v>1.5</v>
+      </c>
+      <c r="DN2">
+        <v>0.15</v>
+      </c>
+      <c r="DO2">
+        <v>0.15</v>
+      </c>
+      <c r="DP2">
+        <v>0.9</v>
+      </c>
+      <c r="DQ2">
+        <v>0.9</v>
+      </c>
+      <c r="DR2">
+        <v>0.3</v>
+      </c>
+      <c r="DS2">
+        <v>0.3</v>
+      </c>
+      <c r="DT2">
+        <v>0.9</v>
+      </c>
+      <c r="DU2">
+        <v>0.09</v>
+      </c>
+      <c r="DV2">
+        <v>0.09</v>
+      </c>
+      <c r="DW2">
+        <v>0.3</v>
+      </c>
+      <c r="DX2">
+        <v>0.3</v>
+      </c>
+      <c r="DY2">
+        <v>7.5</v>
+      </c>
+      <c r="DZ2">
+        <v>7.5</v>
+      </c>
+      <c r="EA2">
+        <v>0.9</v>
+      </c>
+      <c r="EB2">
+        <v>0.9</v>
+      </c>
+      <c r="EC2">
+        <v>0.75</v>
+      </c>
+      <c r="ED2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+      <c r="U3">
+        <v>50</v>
+      </c>
+      <c r="V3">
+        <v>50</v>
+      </c>
+      <c r="W3">
+        <v>50</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>50</v>
+      </c>
+      <c r="AC3">
+        <v>50</v>
+      </c>
+      <c r="AD3">
+        <v>8.5</v>
+      </c>
+      <c r="AE3">
+        <v>8.5</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>50</v>
+      </c>
+      <c r="AN3">
+        <v>50</v>
+      </c>
+      <c r="AO3">
+        <v>50</v>
+      </c>
+      <c r="AP3">
+        <v>50</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <v>10</v>
+      </c>
+      <c r="AS3">
+        <v>50</v>
+      </c>
+      <c r="AT3">
+        <v>50</v>
+      </c>
+      <c r="AU3">
+        <v>50</v>
+      </c>
+      <c r="AV3">
+        <v>25</v>
+      </c>
+      <c r="AW3">
+        <v>25</v>
+      </c>
+      <c r="AX3">
+        <v>25</v>
+      </c>
+      <c r="AY3">
+        <v>25</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>0.3</v>
+      </c>
+      <c r="BC3">
+        <v>0.3</v>
+      </c>
+      <c r="BD3">
+        <v>3</v>
+      </c>
+      <c r="BE3">
+        <v>3</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>10</v>
+      </c>
+      <c r="BI3">
+        <v>10</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>25</v>
+      </c>
+      <c r="BO3">
+        <v>25</v>
+      </c>
+      <c r="BP3">
+        <v>3</v>
+      </c>
+      <c r="BQ3">
+        <v>0.1</v>
+      </c>
+      <c r="BR3">
+        <v>0.1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>3</v>
+      </c>
+      <c r="BV3">
+        <v>3</v>
+      </c>
+      <c r="BW3">
+        <v>50</v>
+      </c>
+      <c r="BX3">
+        <v>50</v>
+      </c>
+      <c r="BY3">
+        <v>3</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>1</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
+        <v>3</v>
+      </c>
+      <c r="CG3">
+        <v>3</v>
+      </c>
+      <c r="CH3">
+        <v>3</v>
+      </c>
+      <c r="CI3">
+        <v>3</v>
+      </c>
+      <c r="CJ3">
+        <v>3</v>
+      </c>
+      <c r="CK3">
+        <v>3</v>
+      </c>
+      <c r="CL3">
+        <v>0.5</v>
+      </c>
+      <c r="CM3">
+        <v>0.5</v>
+      </c>
+      <c r="CN3">
+        <v>2</v>
+      </c>
+      <c r="CO3">
+        <v>2</v>
+      </c>
+      <c r="CP3">
+        <v>10</v>
+      </c>
+      <c r="CQ3">
+        <v>10</v>
+      </c>
+      <c r="CR3">
+        <v>2.5</v>
+      </c>
+      <c r="CS3">
+        <v>2.5</v>
+      </c>
+      <c r="CT3">
+        <v>5</v>
+      </c>
+      <c r="CU3">
+        <v>5</v>
+      </c>
+      <c r="CV3">
+        <v>10</v>
+      </c>
+      <c r="CW3">
+        <v>10</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>0.1</v>
+      </c>
+      <c r="DC3">
+        <v>0.1</v>
+      </c>
+      <c r="DD3">
+        <v>0.5</v>
+      </c>
+      <c r="DE3">
+        <v>0.5</v>
+      </c>
+      <c r="DF3">
+        <v>0.3</v>
+      </c>
+      <c r="DG3">
+        <v>0.3</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>0.5</v>
+      </c>
+      <c r="DK3">
+        <v>0.5</v>
+      </c>
+      <c r="DL3">
+        <v>5</v>
+      </c>
+      <c r="DM3">
+        <v>5</v>
+      </c>
+      <c r="DN3">
+        <v>0.5</v>
+      </c>
+      <c r="DO3">
+        <v>0.5</v>
+      </c>
+      <c r="DP3">
+        <v>3</v>
+      </c>
+      <c r="DQ3">
+        <v>3</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
+        <v>1</v>
+      </c>
+      <c r="DT3">
+        <v>3</v>
+      </c>
+      <c r="DU3">
+        <v>0.3</v>
+      </c>
+      <c r="DV3">
+        <v>0.3</v>
+      </c>
+      <c r="DW3">
+        <v>1</v>
+      </c>
+      <c r="DX3">
+        <v>1</v>
+      </c>
+      <c r="DY3">
+        <v>25</v>
+      </c>
+      <c r="DZ3">
+        <v>25</v>
+      </c>
+      <c r="EA3">
+        <v>3</v>
+      </c>
+      <c r="EB3">
+        <v>3</v>
+      </c>
+      <c r="EC3">
+        <v>2.5</v>
+      </c>
+      <c r="ED3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>75</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <v>75</v>
+      </c>
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <v>150</v>
+      </c>
+      <c r="S4">
+        <v>150</v>
+      </c>
+      <c r="T4">
+        <v>150</v>
+      </c>
+      <c r="U4">
+        <v>150</v>
+      </c>
+      <c r="V4">
+        <v>150</v>
+      </c>
+      <c r="W4">
+        <v>150</v>
+      </c>
+      <c r="X4">
+        <v>30</v>
+      </c>
+      <c r="Y4">
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <v>9</v>
+      </c>
+      <c r="AA4">
+        <v>9</v>
+      </c>
+      <c r="AB4">
+        <v>150</v>
+      </c>
+      <c r="AC4">
+        <v>150</v>
+      </c>
+      <c r="AD4">
+        <v>25.5</v>
+      </c>
+      <c r="AE4">
+        <v>25.5</v>
+      </c>
+      <c r="AF4">
+        <v>30</v>
+      </c>
+      <c r="AG4">
+        <v>30</v>
+      </c>
+      <c r="AH4">
+        <v>9</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>9</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <v>150</v>
+      </c>
+      <c r="AN4">
+        <v>150</v>
+      </c>
+      <c r="AO4">
+        <v>150</v>
+      </c>
+      <c r="AP4">
+        <v>150</v>
+      </c>
+      <c r="AQ4">
+        <v>30</v>
+      </c>
+      <c r="AR4">
+        <v>30</v>
+      </c>
+      <c r="AS4">
+        <v>150</v>
+      </c>
+      <c r="AT4">
+        <v>150</v>
+      </c>
+      <c r="AU4">
+        <v>150</v>
+      </c>
+      <c r="AV4">
+        <v>75</v>
+      </c>
+      <c r="AW4">
+        <v>75</v>
+      </c>
+      <c r="AX4">
+        <v>75</v>
+      </c>
+      <c r="AY4">
+        <v>75</v>
+      </c>
+      <c r="AZ4">
+        <v>3</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>0.9</v>
+      </c>
+      <c r="BC4">
+        <v>0.9</v>
+      </c>
+      <c r="BD4">
+        <v>9</v>
+      </c>
+      <c r="BE4">
+        <v>9</v>
+      </c>
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4">
+        <v>3</v>
+      </c>
+      <c r="BH4">
+        <v>30</v>
+      </c>
+      <c r="BI4">
+        <v>30</v>
+      </c>
+      <c r="BJ4">
+        <v>3</v>
+      </c>
+      <c r="BK4">
+        <v>3</v>
+      </c>
+      <c r="BL4">
+        <v>3</v>
+      </c>
+      <c r="BM4">
+        <v>3</v>
+      </c>
+      <c r="BN4">
+        <v>75</v>
+      </c>
+      <c r="BO4">
+        <v>75</v>
+      </c>
+      <c r="BP4">
+        <v>9</v>
+      </c>
+      <c r="BQ4">
+        <v>0.3</v>
+      </c>
+      <c r="BR4">
+        <v>0.3</v>
+      </c>
+      <c r="BS4">
+        <v>3</v>
+      </c>
+      <c r="BT4">
+        <v>3</v>
+      </c>
+      <c r="BU4">
+        <v>9</v>
+      </c>
+      <c r="BV4">
+        <v>9</v>
+      </c>
+      <c r="BW4">
+        <v>150</v>
+      </c>
+      <c r="BX4">
+        <v>150</v>
+      </c>
+      <c r="BY4">
+        <v>9</v>
+      </c>
+      <c r="BZ4">
+        <v>3</v>
+      </c>
+      <c r="CA4">
+        <v>3</v>
+      </c>
+      <c r="CB4">
+        <v>3</v>
+      </c>
+      <c r="CC4">
+        <v>3</v>
+      </c>
+      <c r="CD4">
+        <v>3</v>
+      </c>
+      <c r="CE4">
+        <v>3</v>
+      </c>
+      <c r="CF4">
+        <v>9</v>
+      </c>
+      <c r="CG4">
+        <v>9</v>
+      </c>
+      <c r="CH4">
+        <v>9</v>
+      </c>
+      <c r="CI4">
+        <v>9</v>
+      </c>
+      <c r="CJ4">
+        <v>9</v>
+      </c>
+      <c r="CK4">
+        <v>9</v>
+      </c>
+      <c r="CL4">
+        <v>1.5</v>
+      </c>
+      <c r="CM4">
+        <v>1.5</v>
+      </c>
+      <c r="CN4">
+        <v>6</v>
+      </c>
+      <c r="CO4">
+        <v>6</v>
+      </c>
+      <c r="CP4">
+        <v>30</v>
+      </c>
+      <c r="CQ4">
+        <v>30</v>
+      </c>
+      <c r="CR4">
+        <v>7.5</v>
+      </c>
+      <c r="CS4">
+        <v>7.5</v>
+      </c>
+      <c r="CT4">
+        <v>15</v>
+      </c>
+      <c r="CU4">
+        <v>15</v>
+      </c>
+      <c r="CV4">
+        <v>30</v>
+      </c>
+      <c r="CW4">
+        <v>30</v>
+      </c>
+      <c r="CX4">
+        <v>3</v>
+      </c>
+      <c r="CY4">
+        <v>3</v>
+      </c>
+      <c r="CZ4">
+        <v>3</v>
+      </c>
+      <c r="DA4">
+        <v>3</v>
+      </c>
+      <c r="DB4">
+        <v>0.3</v>
+      </c>
+      <c r="DC4">
+        <v>0.3</v>
+      </c>
+      <c r="DD4">
+        <v>1.5</v>
+      </c>
+      <c r="DE4">
+        <v>1.5</v>
+      </c>
+      <c r="DF4">
+        <v>0.9</v>
+      </c>
+      <c r="DG4">
+        <v>0.9</v>
+      </c>
+      <c r="DH4">
+        <v>3</v>
+      </c>
+      <c r="DI4">
+        <v>3</v>
+      </c>
+      <c r="DJ4">
+        <v>1.5</v>
+      </c>
+      <c r="DK4">
+        <v>1.5</v>
+      </c>
+      <c r="DL4">
+        <v>15</v>
+      </c>
+      <c r="DM4">
+        <v>15</v>
+      </c>
+      <c r="DN4">
+        <v>1.5</v>
+      </c>
+      <c r="DO4">
+        <v>1.5</v>
+      </c>
+      <c r="DP4">
+        <v>9</v>
+      </c>
+      <c r="DQ4">
+        <v>9</v>
+      </c>
+      <c r="DR4">
+        <v>3</v>
+      </c>
+      <c r="DS4">
+        <v>3</v>
+      </c>
+      <c r="DT4">
+        <v>9</v>
+      </c>
+      <c r="DU4">
+        <v>0.9</v>
+      </c>
+      <c r="DV4">
+        <v>0.9</v>
+      </c>
+      <c r="DW4">
+        <v>3</v>
+      </c>
+      <c r="DX4">
+        <v>3</v>
+      </c>
+      <c r="DY4">
+        <v>75</v>
+      </c>
+      <c r="DZ4">
+        <v>75</v>
+      </c>
+      <c r="EA4">
+        <v>9</v>
+      </c>
+      <c r="EB4">
+        <v>9</v>
+      </c>
+      <c r="EC4">
+        <v>7.5</v>
+      </c>
+      <c r="ED4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5">
+        <v>250</v>
+      </c>
+      <c r="J5">
+        <v>250</v>
+      </c>
+      <c r="K5">
+        <v>250</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>250</v>
+      </c>
+      <c r="O5">
+        <v>250</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>500</v>
+      </c>
+      <c r="S5">
+        <v>500</v>
+      </c>
+      <c r="T5">
+        <v>500</v>
+      </c>
+      <c r="U5">
+        <v>500</v>
+      </c>
+      <c r="V5">
+        <v>500</v>
+      </c>
+      <c r="W5">
+        <v>500</v>
+      </c>
+      <c r="X5">
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>100</v>
+      </c>
+      <c r="Z5">
+        <v>30</v>
+      </c>
+      <c r="AA5">
+        <v>30</v>
+      </c>
+      <c r="AB5">
+        <v>500</v>
+      </c>
+      <c r="AC5">
+        <v>500</v>
+      </c>
+      <c r="AD5">
+        <v>85</v>
+      </c>
+      <c r="AE5">
+        <v>85</v>
+      </c>
+      <c r="AF5">
+        <v>100</v>
+      </c>
+      <c r="AG5">
+        <v>100</v>
+      </c>
+      <c r="AH5">
+        <v>30</v>
+      </c>
+      <c r="AI5">
+        <v>10</v>
+      </c>
+      <c r="AJ5">
+        <v>30</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>500</v>
+      </c>
+      <c r="AN5">
+        <v>500</v>
+      </c>
+      <c r="AO5">
+        <v>500</v>
+      </c>
+      <c r="AP5">
+        <v>500</v>
+      </c>
+      <c r="AQ5">
+        <v>100</v>
+      </c>
+      <c r="AR5">
+        <v>100</v>
+      </c>
+      <c r="AS5">
+        <v>500</v>
+      </c>
+      <c r="AT5">
+        <v>500</v>
+      </c>
+      <c r="AU5">
+        <v>500</v>
+      </c>
+      <c r="AV5">
+        <v>250</v>
+      </c>
+      <c r="AW5">
+        <v>250</v>
+      </c>
+      <c r="AX5">
+        <v>250</v>
+      </c>
+      <c r="AY5">
+        <v>250</v>
+      </c>
+      <c r="AZ5">
+        <v>10</v>
+      </c>
+      <c r="BA5">
+        <v>10</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>3</v>
+      </c>
+      <c r="BD5">
+        <v>30</v>
+      </c>
+      <c r="BE5">
+        <v>30</v>
+      </c>
+      <c r="BF5">
+        <v>10</v>
+      </c>
+      <c r="BG5">
+        <v>10</v>
+      </c>
+      <c r="BH5">
+        <v>100</v>
+      </c>
+      <c r="BI5">
+        <v>100</v>
+      </c>
+      <c r="BJ5">
+        <v>10</v>
+      </c>
+      <c r="BK5">
+        <v>10</v>
+      </c>
+      <c r="BL5">
+        <v>10</v>
+      </c>
+      <c r="BM5">
+        <v>10</v>
+      </c>
+      <c r="BN5">
+        <v>250</v>
+      </c>
+      <c r="BO5">
+        <v>250</v>
+      </c>
+      <c r="BP5">
+        <v>30</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>10</v>
+      </c>
+      <c r="BT5">
+        <v>10</v>
+      </c>
+      <c r="BU5">
+        <v>30</v>
+      </c>
+      <c r="BV5">
+        <v>30</v>
+      </c>
+      <c r="BW5">
+        <v>500</v>
+      </c>
+      <c r="BX5">
+        <v>500</v>
+      </c>
+      <c r="BY5">
+        <v>30</v>
+      </c>
+      <c r="BZ5">
+        <v>10</v>
+      </c>
+      <c r="CA5">
+        <v>10</v>
+      </c>
+      <c r="CB5">
+        <v>10</v>
+      </c>
+      <c r="CC5">
+        <v>10</v>
+      </c>
+      <c r="CD5">
+        <v>10</v>
+      </c>
+      <c r="CE5">
+        <v>10</v>
+      </c>
+      <c r="CF5">
+        <v>30</v>
+      </c>
+      <c r="CG5">
+        <v>30</v>
+      </c>
+      <c r="CH5">
+        <v>30</v>
+      </c>
+      <c r="CI5">
+        <v>30</v>
+      </c>
+      <c r="CJ5">
+        <v>30</v>
+      </c>
+      <c r="CK5">
+        <v>30</v>
+      </c>
+      <c r="CL5">
+        <v>5</v>
+      </c>
+      <c r="CM5">
+        <v>5</v>
+      </c>
+      <c r="CN5">
+        <v>20</v>
+      </c>
+      <c r="CO5">
+        <v>20</v>
+      </c>
+      <c r="CP5">
+        <v>100</v>
+      </c>
+      <c r="CQ5">
+        <v>100</v>
+      </c>
+      <c r="CR5">
+        <v>25</v>
+      </c>
+      <c r="CS5">
+        <v>25</v>
+      </c>
+      <c r="CT5">
+        <v>50</v>
+      </c>
+      <c r="CU5">
+        <v>50</v>
+      </c>
+      <c r="CV5">
+        <v>100</v>
+      </c>
+      <c r="CW5">
+        <v>100</v>
+      </c>
+      <c r="CX5">
+        <v>10</v>
+      </c>
+      <c r="CY5">
+        <v>10</v>
+      </c>
+      <c r="CZ5">
+        <v>10</v>
+      </c>
+      <c r="DA5">
+        <v>10</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>5</v>
+      </c>
+      <c r="DE5">
+        <v>5</v>
+      </c>
+      <c r="DF5">
+        <v>3</v>
+      </c>
+      <c r="DG5">
+        <v>3</v>
+      </c>
+      <c r="DH5">
+        <v>10</v>
+      </c>
+      <c r="DI5">
+        <v>10</v>
+      </c>
+      <c r="DJ5">
+        <v>5</v>
+      </c>
+      <c r="DK5">
+        <v>5</v>
+      </c>
+      <c r="DL5">
+        <v>50</v>
+      </c>
+      <c r="DM5">
+        <v>50</v>
+      </c>
+      <c r="DN5">
+        <v>5</v>
+      </c>
+      <c r="DO5">
+        <v>5</v>
+      </c>
+      <c r="DP5">
+        <v>30</v>
+      </c>
+      <c r="DQ5">
+        <v>30</v>
+      </c>
+      <c r="DR5">
+        <v>10</v>
+      </c>
+      <c r="DS5">
+        <v>10</v>
+      </c>
+      <c r="DT5">
+        <v>30</v>
+      </c>
+      <c r="DU5">
+        <v>3</v>
+      </c>
+      <c r="DV5">
+        <v>3</v>
+      </c>
+      <c r="DW5">
+        <v>10</v>
+      </c>
+      <c r="DX5">
+        <v>10</v>
+      </c>
+      <c r="DY5">
+        <v>250</v>
+      </c>
+      <c r="DZ5">
+        <v>250</v>
+      </c>
+      <c r="EA5">
+        <v>30</v>
+      </c>
+      <c r="EB5">
+        <v>30</v>
+      </c>
+      <c r="EC5">
+        <v>25</v>
+      </c>
+      <c r="ED5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6">
+        <v>750</v>
+      </c>
+      <c r="I6">
+        <v>750</v>
+      </c>
+      <c r="J6">
+        <v>750</v>
+      </c>
+      <c r="K6">
+        <v>750</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>300</v>
+      </c>
+      <c r="N6">
+        <v>750</v>
+      </c>
+      <c r="O6">
+        <v>750</v>
+      </c>
+      <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>300</v>
+      </c>
+      <c r="R6">
+        <v>1500</v>
+      </c>
+      <c r="S6">
+        <v>1500</v>
+      </c>
+      <c r="T6">
+        <v>1500</v>
+      </c>
+      <c r="U6">
+        <v>1500</v>
+      </c>
+      <c r="V6">
+        <v>1500</v>
+      </c>
+      <c r="W6">
+        <v>1500</v>
+      </c>
+      <c r="X6">
+        <v>300</v>
+      </c>
+      <c r="Y6">
+        <v>300</v>
+      </c>
+      <c r="Z6">
+        <v>90</v>
+      </c>
+      <c r="AA6">
+        <v>90</v>
+      </c>
+      <c r="AB6">
+        <v>1500</v>
+      </c>
+      <c r="AC6">
+        <v>1500</v>
+      </c>
+      <c r="AD6">
+        <v>255</v>
+      </c>
+      <c r="AE6">
+        <v>255</v>
+      </c>
+      <c r="AF6">
+        <v>300</v>
+      </c>
+      <c r="AG6">
+        <v>300</v>
+      </c>
+      <c r="AH6">
+        <v>90</v>
+      </c>
+      <c r="AI6">
+        <v>30</v>
+      </c>
+      <c r="AJ6">
+        <v>90</v>
+      </c>
+      <c r="AK6">
+        <v>30</v>
+      </c>
+      <c r="AL6">
+        <v>30</v>
+      </c>
+      <c r="AM6">
+        <v>1500</v>
+      </c>
+      <c r="AN6">
+        <v>1500</v>
+      </c>
+      <c r="AO6">
+        <v>1500</v>
+      </c>
+      <c r="AP6">
+        <v>1500</v>
+      </c>
+      <c r="AQ6">
+        <v>300</v>
+      </c>
+      <c r="AR6">
+        <v>300</v>
+      </c>
+      <c r="AS6">
+        <v>1500</v>
+      </c>
+      <c r="AT6">
+        <v>1500</v>
+      </c>
+      <c r="AU6">
+        <v>1500</v>
+      </c>
+      <c r="AV6">
+        <v>750</v>
+      </c>
+      <c r="AW6">
+        <v>750</v>
+      </c>
+      <c r="AX6">
+        <v>750</v>
+      </c>
+      <c r="AY6">
+        <v>750</v>
+      </c>
+      <c r="AZ6">
+        <v>30</v>
+      </c>
+      <c r="BA6">
+        <v>30</v>
+      </c>
+      <c r="BB6">
+        <v>9</v>
+      </c>
+      <c r="BC6">
+        <v>9</v>
+      </c>
+      <c r="BD6">
+        <v>90</v>
+      </c>
+      <c r="BE6">
+        <v>90</v>
+      </c>
+      <c r="BF6">
+        <v>30</v>
+      </c>
+      <c r="BG6">
+        <v>30</v>
+      </c>
+      <c r="BH6">
+        <v>300</v>
+      </c>
+      <c r="BI6">
+        <v>300</v>
+      </c>
+      <c r="BJ6">
+        <v>30</v>
+      </c>
+      <c r="BK6">
+        <v>30</v>
+      </c>
+      <c r="BL6">
+        <v>30</v>
+      </c>
+      <c r="BM6">
+        <v>30</v>
+      </c>
+      <c r="BN6">
+        <v>750</v>
+      </c>
+      <c r="BO6">
+        <v>750</v>
+      </c>
+      <c r="BP6">
+        <v>90</v>
+      </c>
+      <c r="BQ6">
+        <v>3</v>
+      </c>
+      <c r="BR6">
+        <v>3</v>
+      </c>
+      <c r="BS6">
+        <v>30</v>
+      </c>
+      <c r="BT6">
+        <v>30</v>
+      </c>
+      <c r="BU6">
+        <v>90</v>
+      </c>
+      <c r="BV6">
+        <v>90</v>
+      </c>
+      <c r="BW6">
+        <v>1500</v>
+      </c>
+      <c r="BX6">
+        <v>1500</v>
+      </c>
+      <c r="BY6">
+        <v>90</v>
+      </c>
+      <c r="BZ6">
+        <v>30</v>
+      </c>
+      <c r="CA6">
+        <v>30</v>
+      </c>
+      <c r="CB6">
+        <v>30</v>
+      </c>
+      <c r="CC6">
+        <v>30</v>
+      </c>
+      <c r="CD6">
+        <v>30</v>
+      </c>
+      <c r="CE6">
+        <v>30</v>
+      </c>
+      <c r="CF6">
+        <v>90</v>
+      </c>
+      <c r="CG6">
+        <v>90</v>
+      </c>
+      <c r="CH6">
+        <v>90</v>
+      </c>
+      <c r="CI6">
+        <v>90</v>
+      </c>
+      <c r="CJ6">
+        <v>90</v>
+      </c>
+      <c r="CK6">
+        <v>90</v>
+      </c>
+      <c r="CL6">
+        <v>15</v>
+      </c>
+      <c r="CM6">
+        <v>15</v>
+      </c>
+      <c r="CN6">
+        <v>60</v>
+      </c>
+      <c r="CO6">
+        <v>60</v>
+      </c>
+      <c r="CP6">
+        <v>300</v>
+      </c>
+      <c r="CQ6">
+        <v>300</v>
+      </c>
+      <c r="CR6">
+        <v>75</v>
+      </c>
+      <c r="CS6">
+        <v>75</v>
+      </c>
+      <c r="CT6">
+        <v>150</v>
+      </c>
+      <c r="CU6">
+        <v>150</v>
+      </c>
+      <c r="CV6">
+        <v>300</v>
+      </c>
+      <c r="CW6">
+        <v>300</v>
+      </c>
+      <c r="CX6">
+        <v>30</v>
+      </c>
+      <c r="CY6">
+        <v>30</v>
+      </c>
+      <c r="CZ6">
+        <v>30</v>
+      </c>
+      <c r="DA6">
+        <v>30</v>
+      </c>
+      <c r="DB6">
+        <v>3</v>
+      </c>
+      <c r="DC6">
+        <v>3</v>
+      </c>
+      <c r="DD6">
+        <v>15</v>
+      </c>
+      <c r="DE6">
+        <v>15</v>
+      </c>
+      <c r="DF6">
+        <v>9</v>
+      </c>
+      <c r="DG6">
+        <v>9</v>
+      </c>
+      <c r="DH6">
+        <v>30</v>
+      </c>
+      <c r="DI6">
+        <v>30</v>
+      </c>
+      <c r="DJ6">
+        <v>15</v>
+      </c>
+      <c r="DK6">
+        <v>15</v>
+      </c>
+      <c r="DL6">
+        <v>150</v>
+      </c>
+      <c r="DM6">
+        <v>150</v>
+      </c>
+      <c r="DN6">
+        <v>15</v>
+      </c>
+      <c r="DO6">
+        <v>15</v>
+      </c>
+      <c r="DP6">
+        <v>90</v>
+      </c>
+      <c r="DQ6">
+        <v>90</v>
+      </c>
+      <c r="DR6">
+        <v>30</v>
+      </c>
+      <c r="DS6">
+        <v>30</v>
+      </c>
+      <c r="DT6">
+        <v>90</v>
+      </c>
+      <c r="DU6">
+        <v>9</v>
+      </c>
+      <c r="DV6">
+        <v>9</v>
+      </c>
+      <c r="DW6">
+        <v>30</v>
+      </c>
+      <c r="DX6">
+        <v>30</v>
+      </c>
+      <c r="DY6">
+        <v>750</v>
+      </c>
+      <c r="DZ6">
+        <v>750</v>
+      </c>
+      <c r="EA6">
+        <v>90</v>
+      </c>
+      <c r="EB6">
+        <v>90</v>
+      </c>
+      <c r="EC6">
+        <v>75</v>
+      </c>
+      <c r="ED6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="F7">
+        <v>5000</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+      <c r="H7">
+        <v>2500</v>
+      </c>
+      <c r="I7">
+        <v>2500</v>
+      </c>
+      <c r="J7">
+        <v>2500</v>
+      </c>
+      <c r="K7">
+        <v>2500</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>2500</v>
+      </c>
+      <c r="O7">
+        <v>2500</v>
+      </c>
+      <c r="P7">
+        <v>1000</v>
+      </c>
+      <c r="Q7">
+        <v>1000</v>
+      </c>
+      <c r="R7">
+        <v>5000</v>
+      </c>
+      <c r="S7">
+        <v>5000</v>
+      </c>
+      <c r="T7">
+        <v>5000</v>
+      </c>
+      <c r="U7">
+        <v>5000</v>
+      </c>
+      <c r="V7">
+        <v>5000</v>
+      </c>
+      <c r="W7">
+        <v>5000</v>
+      </c>
+      <c r="X7">
+        <v>1000</v>
+      </c>
+      <c r="Y7">
+        <v>1000</v>
+      </c>
+      <c r="Z7">
+        <v>300</v>
+      </c>
+      <c r="AA7">
+        <v>300</v>
+      </c>
+      <c r="AB7">
+        <v>5000</v>
+      </c>
+      <c r="AC7">
+        <v>5000</v>
+      </c>
+      <c r="AD7">
+        <v>850</v>
+      </c>
+      <c r="AE7">
+        <v>850</v>
+      </c>
+      <c r="AF7">
+        <v>1000</v>
+      </c>
+      <c r="AG7">
+        <v>1000</v>
+      </c>
+      <c r="AH7">
+        <v>300</v>
+      </c>
+      <c r="AI7">
+        <v>100</v>
+      </c>
+      <c r="AJ7">
+        <v>300</v>
+      </c>
+      <c r="AK7">
+        <v>100</v>
+      </c>
+      <c r="AL7">
+        <v>100</v>
+      </c>
+      <c r="AM7">
+        <v>5000</v>
+      </c>
+      <c r="AN7">
+        <v>5000</v>
+      </c>
+      <c r="AO7">
+        <v>5000</v>
+      </c>
+      <c r="AP7">
+        <v>5000</v>
+      </c>
+      <c r="AQ7">
+        <v>1000</v>
+      </c>
+      <c r="AR7">
+        <v>1000</v>
+      </c>
+      <c r="AS7">
+        <v>5000</v>
+      </c>
+      <c r="AT7">
+        <v>5000</v>
+      </c>
+      <c r="AU7">
+        <v>5000</v>
+      </c>
+      <c r="AV7">
+        <v>2500</v>
+      </c>
+      <c r="AW7">
+        <v>2500</v>
+      </c>
+      <c r="AX7">
+        <v>2500</v>
+      </c>
+      <c r="AY7">
+        <v>2500</v>
+      </c>
+      <c r="AZ7">
+        <v>100</v>
+      </c>
+      <c r="BA7">
+        <v>100</v>
+      </c>
+      <c r="BB7">
+        <v>30</v>
+      </c>
+      <c r="BC7">
+        <v>30</v>
+      </c>
+      <c r="BD7">
+        <v>300</v>
+      </c>
+      <c r="BE7">
+        <v>300</v>
+      </c>
+      <c r="BF7">
+        <v>100</v>
+      </c>
+      <c r="BG7">
+        <v>100</v>
+      </c>
+      <c r="BH7">
+        <v>1000</v>
+      </c>
+      <c r="BI7">
+        <v>1000</v>
+      </c>
+      <c r="BJ7">
+        <v>100</v>
+      </c>
+      <c r="BK7">
+        <v>100</v>
+      </c>
+      <c r="BL7">
+        <v>100</v>
+      </c>
+      <c r="BM7">
+        <v>100</v>
+      </c>
+      <c r="BN7">
+        <v>2500</v>
+      </c>
+      <c r="BO7">
+        <v>2500</v>
+      </c>
+      <c r="BP7">
+        <v>300</v>
+      </c>
+      <c r="BQ7">
+        <v>10</v>
+      </c>
+      <c r="BR7">
+        <v>10</v>
+      </c>
+      <c r="BS7">
+        <v>100</v>
+      </c>
+      <c r="BT7">
+        <v>100</v>
+      </c>
+      <c r="BU7">
+        <v>300</v>
+      </c>
+      <c r="BV7">
+        <v>300</v>
+      </c>
+      <c r="BW7">
+        <v>5000</v>
+      </c>
+      <c r="BX7">
+        <v>5000</v>
+      </c>
+      <c r="BY7">
+        <v>300</v>
+      </c>
+      <c r="BZ7">
+        <v>100</v>
+      </c>
+      <c r="CA7">
+        <v>100</v>
+      </c>
+      <c r="CB7">
+        <v>100</v>
+      </c>
+      <c r="CC7">
+        <v>100</v>
+      </c>
+      <c r="CD7">
+        <v>100</v>
+      </c>
+      <c r="CE7">
+        <v>100</v>
+      </c>
+      <c r="CF7">
+        <v>300</v>
+      </c>
+      <c r="CG7">
+        <v>300</v>
+      </c>
+      <c r="CH7">
+        <v>300</v>
+      </c>
+      <c r="CI7">
+        <v>300</v>
+      </c>
+      <c r="CJ7">
+        <v>300</v>
+      </c>
+      <c r="CK7">
+        <v>300</v>
+      </c>
+      <c r="CL7">
+        <v>50</v>
+      </c>
+      <c r="CM7">
+        <v>50</v>
+      </c>
+      <c r="CN7">
+        <v>200</v>
+      </c>
+      <c r="CO7">
+        <v>200</v>
+      </c>
+      <c r="CP7">
+        <v>1000</v>
+      </c>
+      <c r="CQ7">
+        <v>1000</v>
+      </c>
+      <c r="CR7">
+        <v>250</v>
+      </c>
+      <c r="CS7">
+        <v>250</v>
+      </c>
+      <c r="CT7">
+        <v>500</v>
+      </c>
+      <c r="CU7">
+        <v>500</v>
+      </c>
+      <c r="CV7">
+        <v>1000</v>
+      </c>
+      <c r="CW7">
+        <v>1000</v>
+      </c>
+      <c r="CX7">
+        <v>100</v>
+      </c>
+      <c r="CY7">
+        <v>100</v>
+      </c>
+      <c r="CZ7">
+        <v>100</v>
+      </c>
+      <c r="DA7">
+        <v>100</v>
+      </c>
+      <c r="DB7">
+        <v>10</v>
+      </c>
+      <c r="DC7">
+        <v>10</v>
+      </c>
+      <c r="DD7">
+        <v>50</v>
+      </c>
+      <c r="DE7">
+        <v>50</v>
+      </c>
+      <c r="DF7">
+        <v>30</v>
+      </c>
+      <c r="DG7">
+        <v>30</v>
+      </c>
+      <c r="DH7">
+        <v>100</v>
+      </c>
+      <c r="DI7">
+        <v>100</v>
+      </c>
+      <c r="DJ7">
+        <v>50</v>
+      </c>
+      <c r="DK7">
+        <v>50</v>
+      </c>
+      <c r="DL7">
+        <v>500</v>
+      </c>
+      <c r="DM7">
+        <v>500</v>
+      </c>
+      <c r="DN7">
+        <v>50</v>
+      </c>
+      <c r="DO7">
+        <v>50</v>
+      </c>
+      <c r="DP7">
+        <v>300</v>
+      </c>
+      <c r="DQ7">
+        <v>300</v>
+      </c>
+      <c r="DR7">
+        <v>100</v>
+      </c>
+      <c r="DS7">
+        <v>100</v>
+      </c>
+      <c r="DT7">
+        <v>300</v>
+      </c>
+      <c r="DU7">
+        <v>30</v>
+      </c>
+      <c r="DV7">
+        <v>30</v>
+      </c>
+      <c r="DW7">
+        <v>100</v>
+      </c>
+      <c r="DX7">
+        <v>100</v>
+      </c>
+      <c r="DY7">
+        <v>2500</v>
+      </c>
+      <c r="DZ7">
+        <v>2500</v>
+      </c>
+      <c r="EA7">
+        <v>300</v>
+      </c>
+      <c r="EB7">
+        <v>300</v>
+      </c>
+      <c r="EC7">
+        <v>250</v>
+      </c>
+      <c r="ED7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8">
+        <v>15000</v>
+      </c>
+      <c r="C8">
+        <v>15000</v>
+      </c>
+      <c r="D8">
+        <v>15000</v>
+      </c>
+      <c r="E8">
+        <v>15000</v>
+      </c>
+      <c r="F8">
+        <v>15000</v>
+      </c>
+      <c r="G8">
+        <v>15000</v>
+      </c>
+      <c r="H8">
+        <v>7500</v>
+      </c>
+      <c r="I8">
+        <v>7500</v>
+      </c>
+      <c r="J8">
+        <v>7500</v>
+      </c>
+      <c r="K8">
+        <v>7500</v>
+      </c>
+      <c r="L8">
+        <v>3000</v>
+      </c>
+      <c r="M8">
+        <v>3000</v>
+      </c>
+      <c r="N8">
+        <v>7500</v>
+      </c>
+      <c r="O8">
+        <v>7500</v>
+      </c>
+      <c r="P8">
+        <v>3000</v>
+      </c>
+      <c r="Q8">
+        <v>3000</v>
+      </c>
+      <c r="R8">
+        <v>15000</v>
+      </c>
+      <c r="S8">
+        <v>15000</v>
+      </c>
+      <c r="T8">
+        <v>15000</v>
+      </c>
+      <c r="U8">
+        <v>15000</v>
+      </c>
+      <c r="V8">
+        <v>15000</v>
+      </c>
+      <c r="W8">
+        <v>15000</v>
+      </c>
+      <c r="X8">
+        <v>3000</v>
+      </c>
+      <c r="Y8">
+        <v>3000</v>
+      </c>
+      <c r="Z8">
+        <v>900</v>
+      </c>
+      <c r="AA8">
+        <v>900</v>
+      </c>
+      <c r="AB8">
+        <v>15000</v>
+      </c>
+      <c r="AC8">
+        <v>15000</v>
+      </c>
+      <c r="AD8">
+        <v>2550</v>
+      </c>
+      <c r="AE8">
+        <v>2550</v>
+      </c>
+      <c r="AF8">
+        <v>3000</v>
+      </c>
+      <c r="AG8">
+        <v>3000</v>
+      </c>
+      <c r="AH8">
+        <v>900</v>
+      </c>
+      <c r="AI8">
+        <v>300</v>
+      </c>
+      <c r="AJ8">
+        <v>900</v>
+      </c>
+      <c r="AK8">
+        <v>300</v>
+      </c>
+      <c r="AL8">
+        <v>300</v>
+      </c>
+      <c r="AM8">
+        <v>15000</v>
+      </c>
+      <c r="AN8">
+        <v>15000</v>
+      </c>
+      <c r="AO8">
+        <v>15000</v>
+      </c>
+      <c r="AP8">
+        <v>15000</v>
+      </c>
+      <c r="AQ8">
+        <v>3000</v>
+      </c>
+      <c r="AR8">
+        <v>3000</v>
+      </c>
+      <c r="AS8">
+        <v>15000</v>
+      </c>
+      <c r="AT8">
+        <v>15000</v>
+      </c>
+      <c r="AU8">
+        <v>15000</v>
+      </c>
+      <c r="AV8">
+        <v>7500</v>
+      </c>
+      <c r="AW8">
+        <v>7500</v>
+      </c>
+      <c r="AX8">
+        <v>7500</v>
+      </c>
+      <c r="AY8">
+        <v>7500</v>
+      </c>
+      <c r="AZ8">
+        <v>300</v>
+      </c>
+      <c r="BA8">
+        <v>300</v>
+      </c>
+      <c r="BB8">
+        <v>90</v>
+      </c>
+      <c r="BC8">
+        <v>90</v>
+      </c>
+      <c r="BD8">
+        <v>900</v>
+      </c>
+      <c r="BE8">
+        <v>900</v>
+      </c>
+      <c r="BF8">
+        <v>300</v>
+      </c>
+      <c r="BG8">
+        <v>300</v>
+      </c>
+      <c r="BH8">
+        <v>3000</v>
+      </c>
+      <c r="BI8">
+        <v>3000</v>
+      </c>
+      <c r="BJ8">
+        <v>300</v>
+      </c>
+      <c r="BK8">
+        <v>300</v>
+      </c>
+      <c r="BL8">
+        <v>300</v>
+      </c>
+      <c r="BM8">
+        <v>300</v>
+      </c>
+      <c r="BN8">
+        <v>7500</v>
+      </c>
+      <c r="BO8">
+        <v>7500</v>
+      </c>
+      <c r="BP8">
+        <v>900</v>
+      </c>
+      <c r="BQ8">
+        <v>30</v>
+      </c>
+      <c r="BR8">
+        <v>30</v>
+      </c>
+      <c r="BS8">
+        <v>300</v>
+      </c>
+      <c r="BT8">
+        <v>300</v>
+      </c>
+      <c r="BU8">
+        <v>900</v>
+      </c>
+      <c r="BV8">
+        <v>900</v>
+      </c>
+      <c r="BW8">
+        <v>15000</v>
+      </c>
+      <c r="BX8">
+        <v>15000</v>
+      </c>
+      <c r="BY8">
+        <v>900</v>
+      </c>
+      <c r="BZ8">
+        <v>300</v>
+      </c>
+      <c r="CA8">
+        <v>300</v>
+      </c>
+      <c r="CB8">
+        <v>300</v>
+      </c>
+      <c r="CC8">
+        <v>300</v>
+      </c>
+      <c r="CD8">
+        <v>300</v>
+      </c>
+      <c r="CE8">
+        <v>300</v>
+      </c>
+      <c r="CF8">
+        <v>900</v>
+      </c>
+      <c r="CG8">
+        <v>900</v>
+      </c>
+      <c r="CH8">
+        <v>900</v>
+      </c>
+      <c r="CI8">
+        <v>900</v>
+      </c>
+      <c r="CJ8">
+        <v>900</v>
+      </c>
+      <c r="CK8">
+        <v>900</v>
+      </c>
+      <c r="CL8">
+        <v>150</v>
+      </c>
+      <c r="CM8">
+        <v>150</v>
+      </c>
+      <c r="CN8">
+        <v>600</v>
+      </c>
+      <c r="CO8">
+        <v>600</v>
+      </c>
+      <c r="CP8">
+        <v>3000</v>
+      </c>
+      <c r="CQ8">
+        <v>3000</v>
+      </c>
+      <c r="CR8">
+        <v>750</v>
+      </c>
+      <c r="CS8">
+        <v>750</v>
+      </c>
+      <c r="CT8">
+        <v>1500</v>
+      </c>
+      <c r="CU8">
+        <v>1500</v>
+      </c>
+      <c r="CV8">
+        <v>3000</v>
+      </c>
+      <c r="CW8">
+        <v>3000</v>
+      </c>
+      <c r="CX8">
+        <v>300</v>
+      </c>
+      <c r="CY8">
+        <v>300</v>
+      </c>
+      <c r="CZ8">
+        <v>300</v>
+      </c>
+      <c r="DA8">
+        <v>300</v>
+      </c>
+      <c r="DB8">
+        <v>30</v>
+      </c>
+      <c r="DC8">
+        <v>30</v>
+      </c>
+      <c r="DD8">
+        <v>150</v>
+      </c>
+      <c r="DE8">
+        <v>150</v>
+      </c>
+      <c r="DF8">
+        <v>90</v>
+      </c>
+      <c r="DG8">
+        <v>90</v>
+      </c>
+      <c r="DH8">
+        <v>300</v>
+      </c>
+      <c r="DI8">
+        <v>300</v>
+      </c>
+      <c r="DJ8">
+        <v>150</v>
+      </c>
+      <c r="DK8">
+        <v>150</v>
+      </c>
+      <c r="DL8">
+        <v>1500</v>
+      </c>
+      <c r="DM8">
+        <v>1500</v>
+      </c>
+      <c r="DN8">
+        <v>150</v>
+      </c>
+      <c r="DO8">
+        <v>150</v>
+      </c>
+      <c r="DP8">
+        <v>900</v>
+      </c>
+      <c r="DQ8">
+        <v>900</v>
+      </c>
+      <c r="DR8">
+        <v>300</v>
+      </c>
+      <c r="DS8">
+        <v>300</v>
+      </c>
+      <c r="DT8">
+        <v>900</v>
+      </c>
+      <c r="DU8">
+        <v>90</v>
+      </c>
+      <c r="DV8">
+        <v>90</v>
+      </c>
+      <c r="DW8">
+        <v>300</v>
+      </c>
+      <c r="DX8">
+        <v>300</v>
+      </c>
+      <c r="DY8">
+        <v>7500</v>
+      </c>
+      <c r="DZ8">
+        <v>7500</v>
+      </c>
+      <c r="EA8">
+        <v>900</v>
+      </c>
+      <c r="EB8">
+        <v>900</v>
+      </c>
+      <c r="EC8">
+        <v>750</v>
+      </c>
+      <c r="ED8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
+        <v>50000</v>
+      </c>
+      <c r="D9">
+        <v>50000</v>
+      </c>
+      <c r="E9">
+        <v>50000</v>
+      </c>
+      <c r="F9">
+        <v>50000</v>
+      </c>
+      <c r="G9">
+        <v>50000</v>
+      </c>
+      <c r="H9">
+        <v>25000</v>
+      </c>
+      <c r="I9">
+        <v>25000</v>
+      </c>
+      <c r="J9">
+        <v>25000</v>
+      </c>
+      <c r="K9">
+        <v>25000</v>
+      </c>
+      <c r="L9">
+        <v>10000</v>
+      </c>
+      <c r="M9">
+        <v>10000</v>
+      </c>
+      <c r="N9">
+        <v>25000</v>
+      </c>
+      <c r="O9">
+        <v>25000</v>
+      </c>
+      <c r="P9">
+        <v>10000</v>
+      </c>
+      <c r="Q9">
+        <v>10000</v>
+      </c>
+      <c r="R9">
+        <v>50000</v>
+      </c>
+      <c r="S9">
+        <v>50000</v>
+      </c>
+      <c r="T9">
+        <v>50000</v>
+      </c>
+      <c r="U9">
+        <v>50000</v>
+      </c>
+      <c r="V9">
+        <v>50000</v>
+      </c>
+      <c r="W9">
+        <v>50000</v>
+      </c>
+      <c r="X9">
+        <v>10000</v>
+      </c>
+      <c r="Y9">
+        <v>10000</v>
+      </c>
+      <c r="Z9">
+        <v>3000</v>
+      </c>
+      <c r="AA9">
+        <v>3000</v>
+      </c>
+      <c r="AB9">
+        <v>50000</v>
+      </c>
+      <c r="AC9">
+        <v>50000</v>
+      </c>
+      <c r="AD9">
+        <v>8500</v>
+      </c>
+      <c r="AE9">
+        <v>8500</v>
+      </c>
+      <c r="AF9">
+        <v>10000</v>
+      </c>
+      <c r="AG9">
+        <v>10000</v>
+      </c>
+      <c r="AH9">
+        <v>3000</v>
+      </c>
+      <c r="AI9">
+        <v>1000</v>
+      </c>
+      <c r="AJ9">
+        <v>3000</v>
+      </c>
+      <c r="AK9">
+        <v>1000</v>
+      </c>
+      <c r="AL9">
+        <v>1000</v>
+      </c>
+      <c r="AM9">
+        <v>50000</v>
+      </c>
+      <c r="AN9">
+        <v>50000</v>
+      </c>
+      <c r="AO9">
+        <v>50000</v>
+      </c>
+      <c r="AP9">
+        <v>50000</v>
+      </c>
+      <c r="AQ9">
+        <v>10000</v>
+      </c>
+      <c r="AR9">
+        <v>10000</v>
+      </c>
+      <c r="AS9">
+        <v>50000</v>
+      </c>
+      <c r="AT9">
+        <v>50000</v>
+      </c>
+      <c r="AU9">
+        <v>50000</v>
+      </c>
+      <c r="AV9">
+        <v>25000</v>
+      </c>
+      <c r="AW9">
+        <v>25000</v>
+      </c>
+      <c r="AX9">
+        <v>25000</v>
+      </c>
+      <c r="AY9">
+        <v>25000</v>
+      </c>
+      <c r="AZ9">
+        <v>1000</v>
+      </c>
+      <c r="BA9">
+        <v>1000</v>
+      </c>
+      <c r="BB9">
+        <v>300</v>
+      </c>
+      <c r="BC9">
+        <v>300</v>
+      </c>
+      <c r="BD9">
+        <v>3000</v>
+      </c>
+      <c r="BE9">
+        <v>3000</v>
+      </c>
+      <c r="BF9">
+        <v>1000</v>
+      </c>
+      <c r="BG9">
+        <v>1000</v>
+      </c>
+      <c r="BH9">
+        <v>10000</v>
+      </c>
+      <c r="BI9">
+        <v>10000</v>
+      </c>
+      <c r="BJ9">
+        <v>1000</v>
+      </c>
+      <c r="BK9">
+        <v>1000</v>
+      </c>
+      <c r="BL9">
+        <v>1000</v>
+      </c>
+      <c r="BM9">
+        <v>1000</v>
+      </c>
+      <c r="BN9">
+        <v>25000</v>
+      </c>
+      <c r="BO9">
+        <v>25000</v>
+      </c>
+      <c r="BP9">
+        <v>3000</v>
+      </c>
+      <c r="BQ9">
+        <v>100</v>
+      </c>
+      <c r="BR9">
+        <v>100</v>
+      </c>
+      <c r="BS9">
+        <v>1000</v>
+      </c>
+      <c r="BT9">
+        <v>1000</v>
+      </c>
+      <c r="BU9">
+        <v>3000</v>
+      </c>
+      <c r="BV9">
+        <v>3000</v>
+      </c>
+      <c r="BW9">
+        <v>50000</v>
+      </c>
+      <c r="BX9">
+        <v>50000</v>
+      </c>
+      <c r="BY9">
+        <v>3000</v>
+      </c>
+      <c r="BZ9">
+        <v>1000</v>
+      </c>
+      <c r="CA9">
+        <v>1000</v>
+      </c>
+      <c r="CB9">
+        <v>1000</v>
+      </c>
+      <c r="CC9">
+        <v>1000</v>
+      </c>
+      <c r="CD9">
+        <v>1000</v>
+      </c>
+      <c r="CE9">
+        <v>1000</v>
+      </c>
+      <c r="CF9">
+        <v>3000</v>
+      </c>
+      <c r="CG9">
+        <v>3000</v>
+      </c>
+      <c r="CH9">
+        <v>3000</v>
+      </c>
+      <c r="CI9">
+        <v>3000</v>
+      </c>
+      <c r="CJ9">
+        <v>3000</v>
+      </c>
+      <c r="CK9">
+        <v>3000</v>
+      </c>
+      <c r="CL9">
+        <v>500</v>
+      </c>
+      <c r="CM9">
+        <v>500</v>
+      </c>
+      <c r="CN9">
+        <v>2000</v>
+      </c>
+      <c r="CO9">
+        <v>2000</v>
+      </c>
+      <c r="CP9">
+        <v>10000</v>
+      </c>
+      <c r="CQ9">
+        <v>10000</v>
+      </c>
+      <c r="CR9">
+        <v>2500</v>
+      </c>
+      <c r="CS9">
+        <v>2500</v>
+      </c>
+      <c r="CT9">
+        <v>5000</v>
+      </c>
+      <c r="CU9">
+        <v>5000</v>
+      </c>
+      <c r="CV9">
+        <v>10000</v>
+      </c>
+      <c r="CW9">
+        <v>10000</v>
+      </c>
+      <c r="CX9">
+        <v>1000</v>
+      </c>
+      <c r="CY9">
+        <v>1000</v>
+      </c>
+      <c r="CZ9">
+        <v>1000</v>
+      </c>
+      <c r="DA9">
+        <v>1000</v>
+      </c>
+      <c r="DB9">
+        <v>100</v>
+      </c>
+      <c r="DC9">
+        <v>100</v>
+      </c>
+      <c r="DD9">
+        <v>500</v>
+      </c>
+      <c r="DE9">
+        <v>500</v>
+      </c>
+      <c r="DF9">
+        <v>300</v>
+      </c>
+      <c r="DG9">
+        <v>300</v>
+      </c>
+      <c r="DH9">
+        <v>1000</v>
+      </c>
+      <c r="DI9">
+        <v>1000</v>
+      </c>
+      <c r="DJ9">
+        <v>500</v>
+      </c>
+      <c r="DK9">
+        <v>500</v>
+      </c>
+      <c r="DL9">
+        <v>5000</v>
+      </c>
+      <c r="DM9">
+        <v>5000</v>
+      </c>
+      <c r="DN9">
+        <v>500</v>
+      </c>
+      <c r="DO9">
+        <v>500</v>
+      </c>
+      <c r="DP9">
+        <v>3000</v>
+      </c>
+      <c r="DQ9">
+        <v>3000</v>
+      </c>
+      <c r="DR9">
+        <v>1000</v>
+      </c>
+      <c r="DS9">
+        <v>1000</v>
+      </c>
+      <c r="DT9">
+        <v>3000</v>
+      </c>
+      <c r="DU9">
+        <v>300</v>
+      </c>
+      <c r="DV9">
+        <v>300</v>
+      </c>
+      <c r="DW9">
+        <v>1000</v>
+      </c>
+      <c r="DX9">
+        <v>1000</v>
+      </c>
+      <c r="DY9">
+        <v>25000</v>
+      </c>
+      <c r="DZ9">
+        <v>25000</v>
+      </c>
+      <c r="EA9">
+        <v>3000</v>
+      </c>
+      <c r="EB9">
+        <v>3000</v>
+      </c>
+      <c r="EC9">
+        <v>2500</v>
+      </c>
+      <c r="ED9">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B18CA9C-930A-405A-8A1D-0B1702D79F0C}">
+  <dimension ref="A1:DP9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:DP9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J1" t="s">
+        <v>592</v>
+      </c>
+      <c r="K1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L1" t="s">
+        <v>594</v>
+      </c>
+      <c r="M1" t="s">
+        <v>595</v>
+      </c>
+      <c r="N1" t="s">
+        <v>596</v>
+      </c>
+      <c r="O1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P1" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>599</v>
+      </c>
+      <c r="R1" t="s">
+        <v>600</v>
+      </c>
+      <c r="S1" t="s">
+        <v>601</v>
+      </c>
+      <c r="T1" t="s">
+        <v>602</v>
+      </c>
+      <c r="U1" t="s">
+        <v>603</v>
+      </c>
+      <c r="V1" t="s">
+        <v>604</v>
+      </c>
+      <c r="W1" t="s">
+        <v>605</v>
+      </c>
+      <c r="X1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>618</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>634</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>635</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>636</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>637</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>638</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>639</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>640</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>641</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>642</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>643</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>644</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>645</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>646</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>647</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>648</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>651</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>653</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>654</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>655</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>656</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>657</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>658</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>659</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>660</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>661</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>662</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>663</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>664</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>665</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>666</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>667</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>668</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>669</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>670</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>671</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>672</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>673</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>674</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>675</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>676</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>677</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>678</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>679</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>680</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>681</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>682</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>683</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>684</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>685</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>686</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>687</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>688</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>689</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>690</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>691</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>692</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>693</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>694</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>695</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>696</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>697</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>698</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>699</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>700</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>701</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2">
+        <v>7.5</v>
+      </c>
+      <c r="C2">
+        <v>7.5</v>
+      </c>
+      <c r="D2">
+        <v>7.5</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="F2">
+        <v>1.5</v>
+      </c>
+      <c r="G2">
+        <v>1.5</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0.3</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>0.3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>0.3</v>
+      </c>
+      <c r="R2">
+        <v>0.3</v>
+      </c>
+      <c r="S2">
+        <v>0.3</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>0.3</v>
+      </c>
+      <c r="V2">
+        <v>0.3</v>
+      </c>
+      <c r="W2">
+        <v>0.3</v>
+      </c>
+      <c r="X2">
+        <v>0.3</v>
+      </c>
+      <c r="Y2">
+        <v>0.3</v>
+      </c>
+      <c r="Z2">
+        <v>0.3</v>
+      </c>
+      <c r="AA2">
+        <v>0.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.3</v>
+      </c>
+      <c r="AC2">
+        <v>0.3</v>
+      </c>
+      <c r="AD2">
+        <v>0.3</v>
+      </c>
+      <c r="AE2">
+        <v>0.3</v>
+      </c>
+      <c r="AF2">
+        <v>0.3</v>
+      </c>
+      <c r="AG2">
+        <v>0.9</v>
+      </c>
+      <c r="AH2">
+        <v>15</v>
+      </c>
+      <c r="AI2">
+        <v>15</v>
+      </c>
+      <c r="AJ2">
+        <v>7.5</v>
+      </c>
+      <c r="AK2">
+        <v>7.5</v>
+      </c>
+      <c r="AL2">
+        <v>0.03</v>
+      </c>
+      <c r="AM2">
+        <v>0.03</v>
+      </c>
+      <c r="AN2">
+        <v>0.03</v>
+      </c>
+      <c r="AO2">
+        <v>0.03</v>
+      </c>
+      <c r="AP2">
+        <v>0.09</v>
+      </c>
+      <c r="AQ2">
+        <v>0.09</v>
+      </c>
+      <c r="AR2">
+        <v>15</v>
+      </c>
+      <c r="AS2">
+        <v>15</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0.9</v>
+      </c>
+      <c r="AV2">
+        <v>0.3</v>
+      </c>
+      <c r="AW2">
+        <v>0.3</v>
+      </c>
+      <c r="AX2">
+        <v>3</v>
+      </c>
+      <c r="AY2">
+        <v>3</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9</v>
+      </c>
+      <c r="BA2">
+        <v>0.9</v>
+      </c>
+      <c r="BB2">
+        <v>7.5</v>
+      </c>
+      <c r="BC2">
+        <v>1.5</v>
+      </c>
+      <c r="BD2">
+        <v>1.5</v>
+      </c>
+      <c r="BE2">
+        <v>0.3</v>
+      </c>
+      <c r="BF2">
+        <v>0.3</v>
+      </c>
+      <c r="BG2">
+        <v>0.75</v>
+      </c>
+      <c r="BH2">
+        <v>0.75</v>
+      </c>
+      <c r="BI2">
+        <v>1.5</v>
+      </c>
+      <c r="BJ2">
+        <v>1.5</v>
+      </c>
+      <c r="BK2">
+        <v>1.5</v>
+      </c>
+      <c r="BL2">
+        <v>1.5</v>
+      </c>
+      <c r="BM2">
+        <v>0.09</v>
+      </c>
+      <c r="BN2">
+        <v>0.09</v>
+      </c>
+      <c r="BO2">
+        <v>0.09</v>
+      </c>
+      <c r="BP2">
+        <v>0.09</v>
+      </c>
+      <c r="BQ2">
+        <v>15</v>
+      </c>
+      <c r="BR2">
+        <v>15</v>
+      </c>
+      <c r="BS2">
+        <v>0.09</v>
+      </c>
+      <c r="BT2">
+        <v>0.09</v>
+      </c>
+      <c r="BU2">
+        <v>15</v>
+      </c>
+      <c r="BV2">
+        <v>15</v>
+      </c>
+      <c r="BW2">
+        <v>15</v>
+      </c>
+      <c r="BX2">
+        <v>15</v>
+      </c>
+      <c r="BY2">
+        <v>0.3</v>
+      </c>
+      <c r="BZ2">
+        <v>0.3</v>
+      </c>
+      <c r="CA2">
+        <v>1.2</v>
+      </c>
+      <c r="CB2">
+        <v>1.2</v>
+      </c>
+      <c r="CC2">
+        <v>0.9</v>
+      </c>
+      <c r="CD2">
+        <v>0.9</v>
+      </c>
+      <c r="CE2">
+        <v>1.5</v>
+      </c>
+      <c r="CF2">
+        <v>1.5</v>
+      </c>
+      <c r="CG2">
+        <v>3</v>
+      </c>
+      <c r="CH2">
+        <v>3</v>
+      </c>
+      <c r="CI2">
+        <v>0.75</v>
+      </c>
+      <c r="CJ2">
+        <v>0.75</v>
+      </c>
+      <c r="CK2">
+        <v>0.75</v>
+      </c>
+      <c r="CL2">
+        <v>0.75</v>
+      </c>
+      <c r="CM2">
+        <v>0.09</v>
+      </c>
+      <c r="CN2">
+        <v>0.09</v>
+      </c>
+      <c r="CO2">
+        <v>1.5</v>
+      </c>
+      <c r="CP2">
+        <v>1.5</v>
+      </c>
+      <c r="CQ2">
+        <v>0.75</v>
+      </c>
+      <c r="CR2">
+        <v>0.75</v>
+      </c>
+      <c r="CS2">
+        <v>1.5</v>
+      </c>
+      <c r="CT2">
+        <v>1.5</v>
+      </c>
+      <c r="CU2">
+        <v>0.3</v>
+      </c>
+      <c r="CV2">
+        <v>0.3</v>
+      </c>
+      <c r="CW2">
+        <v>0.9</v>
+      </c>
+      <c r="CX2">
+        <v>0.9</v>
+      </c>
+      <c r="CY2">
+        <v>4.05</v>
+      </c>
+      <c r="CZ2">
+        <v>4.05</v>
+      </c>
+      <c r="DA2">
+        <v>0.09</v>
+      </c>
+      <c r="DB2">
+        <v>0.09</v>
+      </c>
+      <c r="DC2">
+        <v>0.3</v>
+      </c>
+      <c r="DD2">
+        <v>0.3</v>
+      </c>
+      <c r="DE2">
+        <v>3</v>
+      </c>
+      <c r="DF2">
+        <v>3</v>
+      </c>
+      <c r="DG2">
+        <v>0.9</v>
+      </c>
+      <c r="DH2">
+        <v>0.9</v>
+      </c>
+      <c r="DI2">
+        <v>7.5</v>
+      </c>
+      <c r="DJ2">
+        <v>7.5</v>
+      </c>
+      <c r="DK2">
+        <v>3</v>
+      </c>
+      <c r="DL2">
+        <v>3</v>
+      </c>
+      <c r="DM2">
+        <v>3</v>
+      </c>
+      <c r="DN2">
+        <v>15</v>
+      </c>
+      <c r="DO2">
+        <v>15</v>
+      </c>
+      <c r="DP2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>50</v>
+      </c>
+      <c r="AI3">
+        <v>50</v>
+      </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>25</v>
+      </c>
+      <c r="AL3">
+        <v>0.1</v>
+      </c>
+      <c r="AM3">
+        <v>0.1</v>
+      </c>
+      <c r="AN3">
+        <v>0.1</v>
+      </c>
+      <c r="AO3">
+        <v>0.1</v>
+      </c>
+      <c r="AP3">
+        <v>0.3</v>
+      </c>
+      <c r="AQ3">
+        <v>0.3</v>
+      </c>
+      <c r="AR3">
+        <v>50</v>
+      </c>
+      <c r="AS3">
+        <v>50</v>
+      </c>
+      <c r="AT3">
+        <v>10</v>
+      </c>
+      <c r="AU3">
+        <v>3</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>10</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>3</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3">
+        <v>25</v>
+      </c>
+      <c r="BC3">
+        <v>5</v>
+      </c>
+      <c r="BD3">
+        <v>5</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>2.5</v>
+      </c>
+      <c r="BH3">
+        <v>2.5</v>
+      </c>
+      <c r="BI3">
+        <v>5</v>
+      </c>
+      <c r="BJ3">
+        <v>5</v>
+      </c>
+      <c r="BK3">
+        <v>5</v>
+      </c>
+      <c r="BL3">
+        <v>5</v>
+      </c>
+      <c r="BM3">
+        <v>0.3</v>
+      </c>
+      <c r="BN3">
+        <v>0.3</v>
+      </c>
+      <c r="BO3">
+        <v>0.3</v>
+      </c>
+      <c r="BP3">
+        <v>0.3</v>
+      </c>
+      <c r="BQ3">
+        <v>50</v>
+      </c>
+      <c r="BR3">
+        <v>50</v>
+      </c>
+      <c r="BS3">
+        <v>0.3</v>
+      </c>
+      <c r="BT3">
+        <v>0.3</v>
+      </c>
+      <c r="BU3">
+        <v>50</v>
+      </c>
+      <c r="BV3">
+        <v>50</v>
+      </c>
+      <c r="BW3">
+        <v>50</v>
+      </c>
+      <c r="BX3">
+        <v>50</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>4</v>
+      </c>
+      <c r="CB3">
+        <v>4</v>
+      </c>
+      <c r="CC3">
+        <v>3</v>
+      </c>
+      <c r="CD3">
+        <v>3</v>
+      </c>
+      <c r="CE3">
+        <v>5</v>
+      </c>
+      <c r="CF3">
+        <v>5</v>
+      </c>
+      <c r="CG3">
+        <v>10</v>
+      </c>
+      <c r="CH3">
+        <v>10</v>
+      </c>
+      <c r="CI3">
+        <v>2.5</v>
+      </c>
+      <c r="CJ3">
+        <v>2.5</v>
+      </c>
+      <c r="CK3">
+        <v>2.5</v>
+      </c>
+      <c r="CL3">
+        <v>2.5</v>
+      </c>
+      <c r="CM3">
+        <v>0.3</v>
+      </c>
+      <c r="CN3">
+        <v>0.3</v>
+      </c>
+      <c r="CO3">
+        <v>5</v>
+      </c>
+      <c r="CP3">
+        <v>5</v>
+      </c>
+      <c r="CQ3">
+        <v>2.5</v>
+      </c>
+      <c r="CR3">
+        <v>2.5</v>
+      </c>
+      <c r="CS3">
+        <v>5</v>
+      </c>
+      <c r="CT3">
+        <v>5</v>
+      </c>
+      <c r="CU3">
+        <v>1</v>
+      </c>
+      <c r="CV3">
+        <v>1</v>
+      </c>
+      <c r="CW3">
+        <v>3</v>
+      </c>
+      <c r="CX3">
+        <v>3</v>
+      </c>
+      <c r="CY3">
+        <v>13.5</v>
+      </c>
+      <c r="CZ3">
+        <v>13.5</v>
+      </c>
+      <c r="DA3">
+        <v>0.3</v>
+      </c>
+      <c r="DB3">
+        <v>0.3</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>10</v>
+      </c>
+      <c r="DF3">
+        <v>10</v>
+      </c>
+      <c r="DG3">
+        <v>3</v>
+      </c>
+      <c r="DH3">
+        <v>3</v>
+      </c>
+      <c r="DI3">
+        <v>25</v>
+      </c>
+      <c r="DJ3">
+        <v>25</v>
+      </c>
+      <c r="DK3">
+        <v>10</v>
+      </c>
+      <c r="DL3">
+        <v>10</v>
+      </c>
+      <c r="DM3">
+        <v>10</v>
+      </c>
+      <c r="DN3">
+        <v>50</v>
+      </c>
+      <c r="DO3">
+        <v>50</v>
+      </c>
+      <c r="DP3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>9</v>
+      </c>
+      <c r="AH4">
+        <v>150</v>
+      </c>
+      <c r="AI4">
+        <v>150</v>
+      </c>
+      <c r="AJ4">
+        <v>75</v>
+      </c>
+      <c r="AK4">
+        <v>75</v>
+      </c>
+      <c r="AL4">
+        <v>0.3</v>
+      </c>
+      <c r="AM4">
+        <v>0.3</v>
+      </c>
+      <c r="AN4">
+        <v>0.3</v>
+      </c>
+      <c r="AO4">
+        <v>0.3</v>
+      </c>
+      <c r="AP4">
+        <v>0.9</v>
+      </c>
+      <c r="AQ4">
+        <v>0.9</v>
+      </c>
+      <c r="AR4">
+        <v>150</v>
+      </c>
+      <c r="AS4">
+        <v>150</v>
+      </c>
+      <c r="AT4">
+        <v>30</v>
+      </c>
+      <c r="AU4">
+        <v>9</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
+        <v>30</v>
+      </c>
+      <c r="AY4">
+        <v>30</v>
+      </c>
+      <c r="AZ4">
+        <v>9</v>
+      </c>
+      <c r="BA4">
+        <v>9</v>
+      </c>
+      <c r="BB4">
+        <v>75</v>
+      </c>
+      <c r="BC4">
+        <v>15</v>
+      </c>
+      <c r="BD4">
+        <v>15</v>
+      </c>
+      <c r="BE4">
+        <v>3</v>
+      </c>
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4">
+        <v>7.5</v>
+      </c>
+      <c r="BH4">
+        <v>7.5</v>
+      </c>
+      <c r="BI4">
+        <v>15</v>
+      </c>
+      <c r="BJ4">
+        <v>15</v>
+      </c>
+      <c r="BK4">
+        <v>15</v>
+      </c>
+      <c r="BL4">
+        <v>15</v>
+      </c>
+      <c r="BM4">
+        <v>0.9</v>
+      </c>
+      <c r="BN4">
+        <v>0.9</v>
+      </c>
+      <c r="BO4">
+        <v>0.9</v>
+      </c>
+      <c r="BP4">
+        <v>0.9</v>
+      </c>
+      <c r="BQ4">
+        <v>150</v>
+      </c>
+      <c r="BR4">
+        <v>150</v>
+      </c>
+      <c r="BS4">
+        <v>0.9</v>
+      </c>
+      <c r="BT4">
+        <v>0.9</v>
+      </c>
+      <c r="BU4">
+        <v>150</v>
+      </c>
+      <c r="BV4">
+        <v>150</v>
+      </c>
+      <c r="BW4">
+        <v>150</v>
+      </c>
+      <c r="BX4">
+        <v>150</v>
+      </c>
+      <c r="BY4">
+        <v>3</v>
+      </c>
+      <c r="BZ4">
+        <v>3</v>
+      </c>
+      <c r="CA4">
+        <v>12</v>
+      </c>
+      <c r="CB4">
+        <v>12</v>
+      </c>
+      <c r="CC4">
+        <v>9</v>
+      </c>
+      <c r="CD4">
+        <v>9</v>
+      </c>
+      <c r="CE4">
+        <v>15</v>
+      </c>
+      <c r="CF4">
+        <v>15</v>
+      </c>
+      <c r="CG4">
+        <v>30</v>
+      </c>
+      <c r="CH4">
+        <v>30</v>
+      </c>
+      <c r="CI4">
+        <v>7.5</v>
+      </c>
+      <c r="CJ4">
+        <v>7.5</v>
+      </c>
+      <c r="CK4">
+        <v>7.5</v>
+      </c>
+      <c r="CL4">
+        <v>7.5</v>
+      </c>
+      <c r="CM4">
+        <v>0.9</v>
+      </c>
+      <c r="CN4">
+        <v>0.9</v>
+      </c>
+      <c r="CO4">
+        <v>15</v>
+      </c>
+      <c r="CP4">
+        <v>15</v>
+      </c>
+      <c r="CQ4">
+        <v>7.5</v>
+      </c>
+      <c r="CR4">
+        <v>7.5</v>
+      </c>
+      <c r="CS4">
+        <v>15</v>
+      </c>
+      <c r="CT4">
+        <v>15</v>
+      </c>
+      <c r="CU4">
+        <v>3</v>
+      </c>
+      <c r="CV4">
+        <v>3</v>
+      </c>
+      <c r="CW4">
+        <v>9</v>
+      </c>
+      <c r="CX4">
+        <v>9</v>
+      </c>
+      <c r="CY4">
+        <v>40.5</v>
+      </c>
+      <c r="CZ4">
+        <v>40.5</v>
+      </c>
+      <c r="DA4">
+        <v>0.9</v>
+      </c>
+      <c r="DB4">
+        <v>0.9</v>
+      </c>
+      <c r="DC4">
+        <v>3</v>
+      </c>
+      <c r="DD4">
+        <v>3</v>
+      </c>
+      <c r="DE4">
+        <v>30</v>
+      </c>
+      <c r="DF4">
+        <v>30</v>
+      </c>
+      <c r="DG4">
+        <v>9</v>
+      </c>
+      <c r="DH4">
+        <v>9</v>
+      </c>
+      <c r="DI4">
+        <v>75</v>
+      </c>
+      <c r="DJ4">
+        <v>75</v>
+      </c>
+      <c r="DK4">
+        <v>30</v>
+      </c>
+      <c r="DL4">
+        <v>30</v>
+      </c>
+      <c r="DM4">
+        <v>30</v>
+      </c>
+      <c r="DN4">
+        <v>150</v>
+      </c>
+      <c r="DO4">
+        <v>150</v>
+      </c>
+      <c r="DP4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>30</v>
+      </c>
+      <c r="AH5">
+        <v>500</v>
+      </c>
+      <c r="AI5">
+        <v>500</v>
+      </c>
+      <c r="AJ5">
+        <v>250</v>
+      </c>
+      <c r="AK5">
+        <v>250</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>500</v>
+      </c>
+      <c r="AS5">
+        <v>500</v>
+      </c>
+      <c r="AT5">
+        <v>100</v>
+      </c>
+      <c r="AU5">
+        <v>30</v>
+      </c>
+      <c r="AV5">
+        <v>10</v>
+      </c>
+      <c r="AW5">
+        <v>10</v>
+      </c>
+      <c r="AX5">
+        <v>100</v>
+      </c>
+      <c r="AY5">
+        <v>100</v>
+      </c>
+      <c r="AZ5">
+        <v>30</v>
+      </c>
+      <c r="BA5">
+        <v>30</v>
+      </c>
+      <c r="BB5">
+        <v>250</v>
+      </c>
+      <c r="BC5">
+        <v>50</v>
+      </c>
+      <c r="BD5">
+        <v>50</v>
+      </c>
+      <c r="BE5">
+        <v>10</v>
+      </c>
+      <c r="BF5">
+        <v>10</v>
+      </c>
+      <c r="BG5">
+        <v>25</v>
+      </c>
+      <c r="BH5">
+        <v>25</v>
+      </c>
+      <c r="BI5">
+        <v>50</v>
+      </c>
+      <c r="BJ5">
+        <v>50</v>
+      </c>
+      <c r="BK5">
+        <v>50</v>
+      </c>
+      <c r="BL5">
+        <v>50</v>
+      </c>
+      <c r="BM5">
+        <v>3</v>
+      </c>
+      <c r="BN5">
+        <v>3</v>
+      </c>
+      <c r="BO5">
+        <v>3</v>
+      </c>
+      <c r="BP5">
+        <v>3</v>
+      </c>
+      <c r="BQ5">
+        <v>500</v>
+      </c>
+      <c r="BR5">
+        <v>500</v>
+      </c>
+      <c r="BS5">
+        <v>3</v>
+      </c>
+      <c r="BT5">
+        <v>3</v>
+      </c>
+      <c r="BU5">
+        <v>500</v>
+      </c>
+      <c r="BV5">
+        <v>500</v>
+      </c>
+      <c r="BW5">
+        <v>500</v>
+      </c>
+      <c r="BX5">
+        <v>500</v>
+      </c>
+      <c r="BY5">
+        <v>10</v>
+      </c>
+      <c r="BZ5">
+        <v>10</v>
+      </c>
+      <c r="CA5">
+        <v>40</v>
+      </c>
+      <c r="CB5">
+        <v>40</v>
+      </c>
+      <c r="CC5">
+        <v>30</v>
+      </c>
+      <c r="CD5">
+        <v>30</v>
+      </c>
+      <c r="CE5">
+        <v>50</v>
+      </c>
+      <c r="CF5">
+        <v>50</v>
+      </c>
+      <c r="CG5">
+        <v>100</v>
+      </c>
+      <c r="CH5">
+        <v>100</v>
+      </c>
+      <c r="CI5">
+        <v>25</v>
+      </c>
+      <c r="CJ5">
+        <v>25</v>
+      </c>
+      <c r="CK5">
+        <v>25</v>
+      </c>
+      <c r="CL5">
+        <v>25</v>
+      </c>
+      <c r="CM5">
+        <v>3</v>
+      </c>
+      <c r="CN5">
+        <v>3</v>
+      </c>
+      <c r="CO5">
+        <v>50</v>
+      </c>
+      <c r="CP5">
+        <v>50</v>
+      </c>
+      <c r="CQ5">
+        <v>25</v>
+      </c>
+      <c r="CR5">
+        <v>25</v>
+      </c>
+      <c r="CS5">
+        <v>50</v>
+      </c>
+      <c r="CT5">
+        <v>50</v>
+      </c>
+      <c r="CU5">
+        <v>10</v>
+      </c>
+      <c r="CV5">
+        <v>10</v>
+      </c>
+      <c r="CW5">
+        <v>30</v>
+      </c>
+      <c r="CX5">
+        <v>30</v>
+      </c>
+      <c r="CY5">
+        <v>135</v>
+      </c>
+      <c r="CZ5">
+        <v>135</v>
+      </c>
+      <c r="DA5">
+        <v>3</v>
+      </c>
+      <c r="DB5">
+        <v>3</v>
+      </c>
+      <c r="DC5">
+        <v>10</v>
+      </c>
+      <c r="DD5">
+        <v>10</v>
+      </c>
+      <c r="DE5">
+        <v>100</v>
+      </c>
+      <c r="DF5">
+        <v>100</v>
+      </c>
+      <c r="DG5">
+        <v>30</v>
+      </c>
+      <c r="DH5">
+        <v>30</v>
+      </c>
+      <c r="DI5">
+        <v>250</v>
+      </c>
+      <c r="DJ5">
+        <v>250</v>
+      </c>
+      <c r="DK5">
+        <v>100</v>
+      </c>
+      <c r="DL5">
+        <v>100</v>
+      </c>
+      <c r="DM5">
+        <v>100</v>
+      </c>
+      <c r="DN5">
+        <v>500</v>
+      </c>
+      <c r="DO5">
+        <v>500</v>
+      </c>
+      <c r="DP5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B6">
+        <v>750</v>
+      </c>
+      <c r="C6">
+        <v>750</v>
+      </c>
+      <c r="D6">
+        <v>750</v>
+      </c>
+      <c r="E6">
+        <v>750</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+      <c r="H6">
+        <v>1500</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>300</v>
+      </c>
+      <c r="U6">
+        <v>30</v>
+      </c>
+      <c r="V6">
+        <v>30</v>
+      </c>
+      <c r="W6">
+        <v>30</v>
+      </c>
+      <c r="X6">
+        <v>30</v>
+      </c>
+      <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>30</v>
+      </c>
+      <c r="AC6">
+        <v>30</v>
+      </c>
+      <c r="AD6">
+        <v>30</v>
+      </c>
+      <c r="AE6">
+        <v>30</v>
+      </c>
+      <c r="AF6">
+        <v>30</v>
+      </c>
+      <c r="AG6">
+        <v>90</v>
+      </c>
+      <c r="AH6">
+        <v>1500</v>
+      </c>
+      <c r="AI6">
+        <v>1500</v>
+      </c>
+      <c r="AJ6">
+        <v>750</v>
+      </c>
+      <c r="AK6">
+        <v>750</v>
+      </c>
+      <c r="AL6">
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AO6">
+        <v>3</v>
+      </c>
+      <c r="AP6">
+        <v>9</v>
+      </c>
+      <c r="AQ6">
+        <v>9</v>
+      </c>
+      <c r="AR6">
+        <v>1500</v>
+      </c>
+      <c r="AS6">
+        <v>1500</v>
+      </c>
+      <c r="AT6">
+        <v>300</v>
+      </c>
+      <c r="AU6">
+        <v>90</v>
+      </c>
+      <c r="AV6">
+        <v>30</v>
+      </c>
+      <c r="AW6">
+        <v>30</v>
+      </c>
+      <c r="AX6">
+        <v>300</v>
+      </c>
+      <c r="AY6">
+        <v>300</v>
+      </c>
+      <c r="AZ6">
+        <v>90</v>
+      </c>
+      <c r="BA6">
+        <v>90</v>
+      </c>
+      <c r="BB6">
+        <v>750</v>
+      </c>
+      <c r="BC6">
+        <v>150</v>
+      </c>
+      <c r="BD6">
+        <v>150</v>
+      </c>
+      <c r="BE6">
+        <v>30</v>
+      </c>
+      <c r="BF6">
+        <v>30</v>
+      </c>
+      <c r="BG6">
+        <v>75</v>
+      </c>
+      <c r="BH6">
+        <v>75</v>
+      </c>
+      <c r="BI6">
+        <v>150</v>
+      </c>
+      <c r="BJ6">
+        <v>150</v>
+      </c>
+      <c r="BK6">
+        <v>150</v>
+      </c>
+      <c r="BL6">
+        <v>150</v>
+      </c>
+      <c r="BM6">
+        <v>9</v>
+      </c>
+      <c r="BN6">
+        <v>9</v>
+      </c>
+      <c r="BO6">
+        <v>9</v>
+      </c>
+      <c r="BP6">
+        <v>9</v>
+      </c>
+      <c r="BQ6">
+        <v>1500</v>
+      </c>
+      <c r="BR6">
+        <v>1500</v>
+      </c>
+      <c r="BS6">
+        <v>9</v>
+      </c>
+      <c r="BT6">
+        <v>9</v>
+      </c>
+      <c r="BU6">
+        <v>1500</v>
+      </c>
+      <c r="BV6">
+        <v>1500</v>
+      </c>
+      <c r="BW6">
+        <v>1500</v>
+      </c>
+      <c r="BX6">
+        <v>1500</v>
+      </c>
+      <c r="BY6">
+        <v>30</v>
+      </c>
+      <c r="BZ6">
+        <v>30</v>
+      </c>
+      <c r="CA6">
+        <v>120</v>
+      </c>
+      <c r="CB6">
+        <v>120</v>
+      </c>
+      <c r="CC6">
+        <v>90</v>
+      </c>
+      <c r="CD6">
+        <v>90</v>
+      </c>
+      <c r="CE6">
+        <v>150</v>
+      </c>
+      <c r="CF6">
+        <v>150</v>
+      </c>
+      <c r="CG6">
+        <v>300</v>
+      </c>
+      <c r="CH6">
+        <v>300</v>
+      </c>
+      <c r="CI6">
+        <v>75</v>
+      </c>
+      <c r="CJ6">
+        <v>75</v>
+      </c>
+      <c r="CK6">
+        <v>75</v>
+      </c>
+      <c r="CL6">
+        <v>75</v>
+      </c>
+      <c r="CM6">
+        <v>9</v>
+      </c>
+      <c r="CN6">
+        <v>9</v>
+      </c>
+      <c r="CO6">
+        <v>150</v>
+      </c>
+      <c r="CP6">
+        <v>150</v>
+      </c>
+      <c r="CQ6">
+        <v>75</v>
+      </c>
+      <c r="CR6">
+        <v>75</v>
+      </c>
+      <c r="CS6">
+        <v>150</v>
+      </c>
+      <c r="CT6">
+        <v>150</v>
+      </c>
+      <c r="CU6">
+        <v>30</v>
+      </c>
+      <c r="CV6">
+        <v>30</v>
+      </c>
+      <c r="CW6">
+        <v>90</v>
+      </c>
+      <c r="CX6">
+        <v>90</v>
+      </c>
+      <c r="CY6">
+        <v>405</v>
+      </c>
+      <c r="CZ6">
+        <v>405</v>
+      </c>
+      <c r="DA6">
+        <v>9</v>
+      </c>
+      <c r="DB6">
+        <v>9</v>
+      </c>
+      <c r="DC6">
+        <v>30</v>
+      </c>
+      <c r="DD6">
+        <v>30</v>
+      </c>
+      <c r="DE6">
+        <v>300</v>
+      </c>
+      <c r="DF6">
+        <v>300</v>
+      </c>
+      <c r="DG6">
+        <v>90</v>
+      </c>
+      <c r="DH6">
+        <v>90</v>
+      </c>
+      <c r="DI6">
+        <v>750</v>
+      </c>
+      <c r="DJ6">
+        <v>750</v>
+      </c>
+      <c r="DK6">
+        <v>300</v>
+      </c>
+      <c r="DL6">
+        <v>300</v>
+      </c>
+      <c r="DM6">
+        <v>300</v>
+      </c>
+      <c r="DN6">
+        <v>1500</v>
+      </c>
+      <c r="DO6">
+        <v>1500</v>
+      </c>
+      <c r="DP6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
+      <c r="C7">
+        <v>2500</v>
+      </c>
+      <c r="D7">
+        <v>2500</v>
+      </c>
+      <c r="E7">
+        <v>2500</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+      <c r="I7">
+        <v>5000</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+      <c r="P7">
+        <v>1000</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>1000</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <v>100</v>
+      </c>
+      <c r="X7">
+        <v>100</v>
+      </c>
+      <c r="Y7">
+        <v>100</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+      <c r="AA7">
+        <v>100</v>
+      </c>
+      <c r="AB7">
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>100</v>
+      </c>
+      <c r="AD7">
+        <v>100</v>
+      </c>
+      <c r="AE7">
+        <v>100</v>
+      </c>
+      <c r="AF7">
+        <v>100</v>
+      </c>
+      <c r="AG7">
+        <v>300</v>
+      </c>
+      <c r="AH7">
+        <v>5000</v>
+      </c>
+      <c r="AI7">
+        <v>5000</v>
+      </c>
+      <c r="AJ7">
+        <v>2500</v>
+      </c>
+      <c r="AK7">
+        <v>2500</v>
+      </c>
+      <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>10</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>30</v>
+      </c>
+      <c r="AQ7">
+        <v>30</v>
+      </c>
+      <c r="AR7">
+        <v>5000</v>
+      </c>
+      <c r="AS7">
+        <v>5000</v>
+      </c>
+      <c r="AT7">
+        <v>1000</v>
+      </c>
+      <c r="AU7">
+        <v>300</v>
+      </c>
+      <c r="AV7">
+        <v>100</v>
+      </c>
+      <c r="AW7">
+        <v>100</v>
+      </c>
+      <c r="AX7">
+        <v>1000</v>
+      </c>
+      <c r="AY7">
+        <v>1000</v>
+      </c>
+      <c r="AZ7">
+        <v>300</v>
+      </c>
+      <c r="BA7">
+        <v>300</v>
+      </c>
+      <c r="BB7">
+        <v>2500</v>
+      </c>
+      <c r="BC7">
+        <v>500</v>
+      </c>
+      <c r="BD7">
+        <v>500</v>
+      </c>
+      <c r="BE7">
+        <v>100</v>
+      </c>
+      <c r="BF7">
+        <v>100</v>
+      </c>
+      <c r="BG7">
+        <v>250</v>
+      </c>
+      <c r="BH7">
+        <v>250</v>
+      </c>
+      <c r="BI7">
+        <v>500</v>
+      </c>
+      <c r="BJ7">
+        <v>500</v>
+      </c>
+      <c r="BK7">
+        <v>500</v>
+      </c>
+      <c r="BL7">
+        <v>500</v>
+      </c>
+      <c r="BM7">
+        <v>30</v>
+      </c>
+      <c r="BN7">
+        <v>30</v>
+      </c>
+      <c r="BO7">
+        <v>30</v>
+      </c>
+      <c r="BP7">
+        <v>30</v>
+      </c>
+      <c r="BQ7">
+        <v>5000</v>
+      </c>
+      <c r="BR7">
+        <v>5000</v>
+      </c>
+      <c r="BS7">
+        <v>30</v>
+      </c>
+      <c r="BT7">
+        <v>30</v>
+      </c>
+      <c r="BU7">
+        <v>5000</v>
+      </c>
+      <c r="BV7">
+        <v>5000</v>
+      </c>
+      <c r="BW7">
+        <v>5000</v>
+      </c>
+      <c r="BX7">
+        <v>5000</v>
+      </c>
+      <c r="BY7">
+        <v>100</v>
+      </c>
+      <c r="BZ7">
+        <v>100</v>
+      </c>
+      <c r="CA7">
+        <v>400</v>
+      </c>
+      <c r="CB7">
+        <v>400</v>
+      </c>
+      <c r="CC7">
+        <v>300</v>
+      </c>
+      <c r="CD7">
+        <v>300</v>
+      </c>
+      <c r="CE7">
+        <v>500</v>
+      </c>
+      <c r="CF7">
+        <v>500</v>
+      </c>
+      <c r="CG7">
+        <v>1000</v>
+      </c>
+      <c r="CH7">
+        <v>1000</v>
+      </c>
+      <c r="CI7">
+        <v>250</v>
+      </c>
+      <c r="CJ7">
+        <v>250</v>
+      </c>
+      <c r="CK7">
+        <v>250</v>
+      </c>
+      <c r="CL7">
+        <v>250</v>
+      </c>
+      <c r="CM7">
+        <v>30</v>
+      </c>
+      <c r="CN7">
+        <v>30</v>
+      </c>
+      <c r="CO7">
+        <v>500</v>
+      </c>
+      <c r="CP7">
+        <v>500</v>
+      </c>
+      <c r="CQ7">
+        <v>250</v>
+      </c>
+      <c r="CR7">
+        <v>250</v>
+      </c>
+      <c r="CS7">
+        <v>500</v>
+      </c>
+      <c r="CT7">
+        <v>500</v>
+      </c>
+      <c r="CU7">
+        <v>100</v>
+      </c>
+      <c r="CV7">
+        <v>100</v>
+      </c>
+      <c r="CW7">
+        <v>300</v>
+      </c>
+      <c r="CX7">
+        <v>300</v>
+      </c>
+      <c r="CY7">
+        <v>1350</v>
+      </c>
+      <c r="CZ7">
+        <v>1350</v>
+      </c>
+      <c r="DA7">
+        <v>30</v>
+      </c>
+      <c r="DB7">
+        <v>30</v>
+      </c>
+      <c r="DC7">
+        <v>100</v>
+      </c>
+      <c r="DD7">
+        <v>100</v>
+      </c>
+      <c r="DE7">
+        <v>1000</v>
+      </c>
+      <c r="DF7">
+        <v>1000</v>
+      </c>
+      <c r="DG7">
+        <v>300</v>
+      </c>
+      <c r="DH7">
+        <v>300</v>
+      </c>
+      <c r="DI7">
+        <v>2500</v>
+      </c>
+      <c r="DJ7">
+        <v>2500</v>
+      </c>
+      <c r="DK7">
+        <v>1000</v>
+      </c>
+      <c r="DL7">
+        <v>1000</v>
+      </c>
+      <c r="DM7">
+        <v>1000</v>
+      </c>
+      <c r="DN7">
+        <v>5000</v>
+      </c>
+      <c r="DO7">
+        <v>5000</v>
+      </c>
+      <c r="DP7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B8">
+        <v>7500</v>
+      </c>
+      <c r="C8">
+        <v>7500</v>
+      </c>
+      <c r="D8">
+        <v>7500</v>
+      </c>
+      <c r="E8">
+        <v>7500</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+      <c r="G8">
+        <v>1500</v>
+      </c>
+      <c r="H8">
+        <v>15000</v>
+      </c>
+      <c r="I8">
+        <v>15000</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>300</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>3000</v>
+      </c>
+      <c r="P8">
+        <v>3000</v>
+      </c>
+      <c r="Q8">
+        <v>300</v>
+      </c>
+      <c r="R8">
+        <v>300</v>
+      </c>
+      <c r="S8">
+        <v>300</v>
+      </c>
+      <c r="T8">
+        <v>3000</v>
+      </c>
+      <c r="U8">
+        <v>300</v>
+      </c>
+      <c r="V8">
+        <v>300</v>
+      </c>
+      <c r="W8">
+        <v>300</v>
+      </c>
+      <c r="X8">
+        <v>300</v>
+      </c>
+      <c r="Y8">
+        <v>300</v>
+      </c>
+      <c r="Z8">
+        <v>300</v>
+      </c>
+      <c r="AA8">
+        <v>300</v>
+      </c>
+      <c r="AB8">
+        <v>300</v>
+      </c>
+      <c r="AC8">
+        <v>300</v>
+      </c>
+      <c r="AD8">
+        <v>300</v>
+      </c>
+      <c r="AE8">
+        <v>300</v>
+      </c>
+      <c r="AF8">
+        <v>300</v>
+      </c>
+      <c r="AG8">
+        <v>900</v>
+      </c>
+      <c r="AH8">
+        <v>15000</v>
+      </c>
+      <c r="AI8">
+        <v>15000</v>
+      </c>
+      <c r="AJ8">
+        <v>7500</v>
+      </c>
+      <c r="AK8">
+        <v>7500</v>
+      </c>
+      <c r="AL8">
+        <v>30</v>
+      </c>
+      <c r="AM8">
+        <v>30</v>
+      </c>
+      <c r="AN8">
+        <v>30</v>
+      </c>
+      <c r="AO8">
+        <v>30</v>
+      </c>
+      <c r="AP8">
+        <v>90</v>
+      </c>
+      <c r="AQ8">
+        <v>90</v>
+      </c>
+      <c r="AR8">
+        <v>15000</v>
+      </c>
+      <c r="AS8">
+        <v>15000</v>
+      </c>
+      <c r="AT8">
+        <v>3000</v>
+      </c>
+      <c r="AU8">
+        <v>900</v>
+      </c>
+      <c r="AV8">
+        <v>300</v>
+      </c>
+      <c r="AW8">
+        <v>300</v>
+      </c>
+      <c r="AX8">
+        <v>3000</v>
+      </c>
+      <c r="AY8">
+        <v>3000</v>
+      </c>
+      <c r="AZ8">
+        <v>900</v>
+      </c>
+      <c r="BA8">
+        <v>900</v>
+      </c>
+      <c r="BB8">
+        <v>7500</v>
+      </c>
+      <c r="BC8">
+        <v>1500</v>
+      </c>
+      <c r="BD8">
+        <v>1500</v>
+      </c>
+      <c r="BE8">
+        <v>300</v>
+      </c>
+      <c r="BF8">
+        <v>300</v>
+      </c>
+      <c r="BG8">
+        <v>750</v>
+      </c>
+      <c r="BH8">
+        <v>750</v>
+      </c>
+      <c r="BI8">
+        <v>1500</v>
+      </c>
+      <c r="BJ8">
+        <v>1500</v>
+      </c>
+      <c r="BK8">
+        <v>1500</v>
+      </c>
+      <c r="BL8">
+        <v>1500</v>
+      </c>
+      <c r="BM8">
+        <v>90</v>
+      </c>
+      <c r="BN8">
+        <v>90</v>
+      </c>
+      <c r="BO8">
+        <v>90</v>
+      </c>
+      <c r="BP8">
+        <v>90</v>
+      </c>
+      <c r="BQ8">
+        <v>15000</v>
+      </c>
+      <c r="BR8">
+        <v>15000</v>
+      </c>
+      <c r="BS8">
+        <v>90</v>
+      </c>
+      <c r="BT8">
+        <v>90</v>
+      </c>
+      <c r="BU8">
+        <v>15000</v>
+      </c>
+      <c r="BV8">
+        <v>15000</v>
+      </c>
+      <c r="BW8">
+        <v>15000</v>
+      </c>
+      <c r="BX8">
+        <v>15000</v>
+      </c>
+      <c r="BY8">
+        <v>300</v>
+      </c>
+      <c r="BZ8">
+        <v>300</v>
+      </c>
+      <c r="CA8">
+        <v>1200</v>
+      </c>
+      <c r="CB8">
+        <v>1200</v>
+      </c>
+      <c r="CC8">
+        <v>900</v>
+      </c>
+      <c r="CD8">
+        <v>900</v>
+      </c>
+      <c r="CE8">
+        <v>1500</v>
+      </c>
+      <c r="CF8">
+        <v>1500</v>
+      </c>
+      <c r="CG8">
+        <v>3000</v>
+      </c>
+      <c r="CH8">
+        <v>3000</v>
+      </c>
+      <c r="CI8">
+        <v>750</v>
+      </c>
+      <c r="CJ8">
+        <v>750</v>
+      </c>
+      <c r="CK8">
+        <v>750</v>
+      </c>
+      <c r="CL8">
+        <v>750</v>
+      </c>
+      <c r="CM8">
+        <v>90</v>
+      </c>
+      <c r="CN8">
+        <v>90</v>
+      </c>
+      <c r="CO8">
+        <v>1500</v>
+      </c>
+      <c r="CP8">
+        <v>1500</v>
+      </c>
+      <c r="CQ8">
+        <v>750</v>
+      </c>
+      <c r="CR8">
+        <v>750</v>
+      </c>
+      <c r="CS8">
+        <v>1500</v>
+      </c>
+      <c r="CT8">
+        <v>1500</v>
+      </c>
+      <c r="CU8">
+        <v>300</v>
+      </c>
+      <c r="CV8">
+        <v>300</v>
+      </c>
+      <c r="CW8">
+        <v>900</v>
+      </c>
+      <c r="CX8">
+        <v>900</v>
+      </c>
+      <c r="CY8">
+        <v>4050</v>
+      </c>
+      <c r="CZ8">
+        <v>4050</v>
+      </c>
+      <c r="DA8">
+        <v>90</v>
+      </c>
+      <c r="DB8">
+        <v>90</v>
+      </c>
+      <c r="DC8">
+        <v>300</v>
+      </c>
+      <c r="DD8">
+        <v>300</v>
+      </c>
+      <c r="DE8">
+        <v>3000</v>
+      </c>
+      <c r="DF8">
+        <v>3000</v>
+      </c>
+      <c r="DG8">
+        <v>900</v>
+      </c>
+      <c r="DH8">
+        <v>900</v>
+      </c>
+      <c r="DI8">
+        <v>7500</v>
+      </c>
+      <c r="DJ8">
+        <v>7500</v>
+      </c>
+      <c r="DK8">
+        <v>3000</v>
+      </c>
+      <c r="DL8">
+        <v>3000</v>
+      </c>
+      <c r="DM8">
+        <v>3000</v>
+      </c>
+      <c r="DN8">
+        <v>15000</v>
+      </c>
+      <c r="DO8">
+        <v>15000</v>
+      </c>
+      <c r="DP8">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B9">
+        <v>25000</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+      <c r="D9">
+        <v>25000</v>
+      </c>
+      <c r="E9">
+        <v>25000</v>
+      </c>
+      <c r="F9">
+        <v>5000</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>50000</v>
+      </c>
+      <c r="I9">
+        <v>50000</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>1000</v>
+      </c>
+      <c r="O9">
+        <v>10000</v>
+      </c>
+      <c r="P9">
+        <v>10000</v>
+      </c>
+      <c r="Q9">
+        <v>1000</v>
+      </c>
+      <c r="R9">
+        <v>1000</v>
+      </c>
+      <c r="S9">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>10000</v>
+      </c>
+      <c r="U9">
+        <v>1000</v>
+      </c>
+      <c r="V9">
+        <v>1000</v>
+      </c>
+      <c r="W9">
+        <v>1000</v>
+      </c>
+      <c r="X9">
+        <v>1000</v>
+      </c>
+      <c r="Y9">
+        <v>1000</v>
+      </c>
+      <c r="Z9">
+        <v>1000</v>
+      </c>
+      <c r="AA9">
+        <v>1000</v>
+      </c>
+      <c r="AB9">
+        <v>1000</v>
+      </c>
+      <c r="AC9">
+        <v>1000</v>
+      </c>
+      <c r="AD9">
+        <v>1000</v>
+      </c>
+      <c r="AE9">
+        <v>1000</v>
+      </c>
+      <c r="AF9">
+        <v>1000</v>
+      </c>
+      <c r="AG9">
+        <v>3000</v>
+      </c>
+      <c r="AH9">
+        <v>50000</v>
+      </c>
+      <c r="AI9">
+        <v>50000</v>
+      </c>
+      <c r="AJ9">
+        <v>25000</v>
+      </c>
+      <c r="AK9">
+        <v>25000</v>
+      </c>
+      <c r="AL9">
+        <v>100</v>
+      </c>
+      <c r="AM9">
+        <v>100</v>
+      </c>
+      <c r="AN9">
+        <v>100</v>
+      </c>
+      <c r="AO9">
+        <v>100</v>
+      </c>
+      <c r="AP9">
+        <v>300</v>
+      </c>
+      <c r="AQ9">
+        <v>300</v>
+      </c>
+      <c r="AR9">
+        <v>50000</v>
+      </c>
+      <c r="AS9">
+        <v>50000</v>
+      </c>
+      <c r="AT9">
+        <v>10000</v>
+      </c>
+      <c r="AU9">
+        <v>3000</v>
+      </c>
+      <c r="AV9">
+        <v>1000</v>
+      </c>
+      <c r="AW9">
+        <v>1000</v>
+      </c>
+      <c r="AX9">
+        <v>10000</v>
+      </c>
+      <c r="AY9">
+        <v>10000</v>
+      </c>
+      <c r="AZ9">
+        <v>3000</v>
+      </c>
+      <c r="BA9">
+        <v>3000</v>
+      </c>
+      <c r="BB9">
+        <v>25000</v>
+      </c>
+      <c r="BC9">
+        <v>5000</v>
+      </c>
+      <c r="BD9">
+        <v>5000</v>
+      </c>
+      <c r="BE9">
+        <v>1000</v>
+      </c>
+      <c r="BF9">
+        <v>1000</v>
+      </c>
+      <c r="BG9">
+        <v>2500</v>
+      </c>
+      <c r="BH9">
+        <v>2500</v>
+      </c>
+      <c r="BI9">
+        <v>5000</v>
+      </c>
+      <c r="BJ9">
+        <v>5000</v>
+      </c>
+      <c r="BK9">
+        <v>5000</v>
+      </c>
+      <c r="BL9">
+        <v>5000</v>
+      </c>
+      <c r="BM9">
+        <v>300</v>
+      </c>
+      <c r="BN9">
+        <v>300</v>
+      </c>
+      <c r="BO9">
+        <v>300</v>
+      </c>
+      <c r="BP9">
+        <v>300</v>
+      </c>
+      <c r="BQ9">
+        <v>50000</v>
+      </c>
+      <c r="BR9">
+        <v>50000</v>
+      </c>
+      <c r="BS9">
+        <v>300</v>
+      </c>
+      <c r="BT9">
+        <v>300</v>
+      </c>
+      <c r="BU9">
+        <v>50000</v>
+      </c>
+      <c r="BV9">
+        <v>50000</v>
+      </c>
+      <c r="BW9">
+        <v>50000</v>
+      </c>
+      <c r="BX9">
+        <v>50000</v>
+      </c>
+      <c r="BY9">
+        <v>1000</v>
+      </c>
+      <c r="BZ9">
+        <v>1000</v>
+      </c>
+      <c r="CA9">
+        <v>4000</v>
+      </c>
+      <c r="CB9">
+        <v>4000</v>
+      </c>
+      <c r="CC9">
+        <v>3000</v>
+      </c>
+      <c r="CD9">
+        <v>3000</v>
+      </c>
+      <c r="CE9">
+        <v>5000</v>
+      </c>
+      <c r="CF9">
+        <v>5000</v>
+      </c>
+      <c r="CG9">
+        <v>10000</v>
+      </c>
+      <c r="CH9">
+        <v>10000</v>
+      </c>
+      <c r="CI9">
+        <v>2500</v>
+      </c>
+      <c r="CJ9">
+        <v>2500</v>
+      </c>
+      <c r="CK9">
+        <v>2500</v>
+      </c>
+      <c r="CL9">
+        <v>2500</v>
+      </c>
+      <c r="CM9">
+        <v>300</v>
+      </c>
+      <c r="CN9">
+        <v>300</v>
+      </c>
+      <c r="CO9">
+        <v>5000</v>
+      </c>
+      <c r="CP9">
+        <v>5000</v>
+      </c>
+      <c r="CQ9">
+        <v>2500</v>
+      </c>
+      <c r="CR9">
+        <v>2500</v>
+      </c>
+      <c r="CS9">
+        <v>5000</v>
+      </c>
+      <c r="CT9">
+        <v>5000</v>
+      </c>
+      <c r="CU9">
+        <v>1000</v>
+      </c>
+      <c r="CV9">
+        <v>1000</v>
+      </c>
+      <c r="CW9">
+        <v>3000</v>
+      </c>
+      <c r="CX9">
+        <v>3000</v>
+      </c>
+      <c r="CY9">
+        <v>13500</v>
+      </c>
+      <c r="CZ9">
+        <v>13500</v>
+      </c>
+      <c r="DA9">
+        <v>300</v>
+      </c>
+      <c r="DB9">
+        <v>300</v>
+      </c>
+      <c r="DC9">
+        <v>1000</v>
+      </c>
+      <c r="DD9">
+        <v>1000</v>
+      </c>
+      <c r="DE9">
+        <v>10000</v>
+      </c>
+      <c r="DF9">
+        <v>10000</v>
+      </c>
+      <c r="DG9">
+        <v>3000</v>
+      </c>
+      <c r="DH9">
+        <v>3000</v>
+      </c>
+      <c r="DI9">
+        <v>25000</v>
+      </c>
+      <c r="DJ9">
+        <v>25000</v>
+      </c>
+      <c r="DK9">
+        <v>10000</v>
+      </c>
+      <c r="DL9">
+        <v>10000</v>
+      </c>
+      <c r="DM9">
+        <v>10000</v>
+      </c>
+      <c r="DN9">
+        <v>50000</v>
+      </c>
+      <c r="DO9">
+        <v>50000</v>
+      </c>
+      <c r="DP9">
+        <v>25000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B436CA34-F652-4D96-AE9A-9E7059896D21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867D6AA-EDA7-4B8B-8081-9F5F6286F13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="4" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="3" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="713">
   <si>
     <t>Concentration</t>
   </si>
@@ -2162,6 +2162,12 @@
   </si>
   <si>
     <t>RP Hep Cal 1</t>
+  </si>
+  <si>
+    <t>L 3 ppm</t>
+  </si>
+  <si>
+    <t>L 0.03 ppm</t>
   </si>
 </sst>
 </file>
@@ -14217,10 +14223,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00108A2-6F53-4E74-9C3B-0EA16256D348}">
-  <dimension ref="A1:ED9"/>
+  <dimension ref="A1:ED14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:ED9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17859,6 +17865,2026 @@
       </c>
       <c r="ED9">
         <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10">
+        <v>0</v>
+      </c>
+      <c r="DZ10">
+        <v>0</v>
+      </c>
+      <c r="EA10">
+        <v>0</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
+      </c>
+      <c r="DT11">
+        <v>0</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
+      </c>
+      <c r="DV11">
+        <v>0</v>
+      </c>
+      <c r="DW11">
+        <v>0</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11">
+        <v>0</v>
+      </c>
+      <c r="DZ11">
+        <v>0</v>
+      </c>
+      <c r="EA11">
+        <v>0</v>
+      </c>
+      <c r="EB11">
+        <v>0</v>
+      </c>
+      <c r="EC11">
+        <v>0</v>
+      </c>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>710</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
+      <c r="DT12">
+        <v>0</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DV12">
+        <v>0</v>
+      </c>
+      <c r="DW12">
+        <v>0</v>
+      </c>
+      <c r="DX12">
+        <v>0</v>
+      </c>
+      <c r="DY12">
+        <v>0</v>
+      </c>
+      <c r="DZ12">
+        <v>0</v>
+      </c>
+      <c r="EA12">
+        <v>0</v>
+      </c>
+      <c r="EB12">
+        <v>0</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13">
+        <v>0</v>
+      </c>
+      <c r="DT13">
+        <v>0</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DV13">
+        <v>0</v>
+      </c>
+      <c r="DW13">
+        <v>0</v>
+      </c>
+      <c r="DX13">
+        <v>0</v>
+      </c>
+      <c r="DY13">
+        <v>0</v>
+      </c>
+      <c r="DZ13">
+        <v>0</v>
+      </c>
+      <c r="EA13">
+        <v>0</v>
+      </c>
+      <c r="EB13">
+        <v>0</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:134" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DD14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DF14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
+      </c>
+      <c r="DP14">
+        <v>0</v>
+      </c>
+      <c r="DQ14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>0</v>
+      </c>
+      <c r="DT14">
+        <v>0</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DV14">
+        <v>0</v>
+      </c>
+      <c r="DW14">
+        <v>0</v>
+      </c>
+      <c r="DX14">
+        <v>0</v>
+      </c>
+      <c r="DY14">
+        <v>0</v>
+      </c>
+      <c r="DZ14">
+        <v>0</v>
+      </c>
+      <c r="EA14">
+        <v>0</v>
+      </c>
+      <c r="EB14">
+        <v>0</v>
+      </c>
+      <c r="EC14">
+        <v>0</v>
+      </c>
+      <c r="ED14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17870,8 +19896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B18CA9C-930A-405A-8A1D-0B1702D79F0C}">
   <dimension ref="A1:DP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:DP9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867D6AA-EDA7-4B8B-8081-9F5F6286F13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859376EB-080E-4D10-BEB4-AA5FD7D09CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="3" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="711">
   <si>
     <t>Concentration</t>
   </si>
@@ -2162,12 +2162,6 @@
   </si>
   <si>
     <t>RP Hep Cal 1</t>
-  </si>
-  <si>
-    <t>L 3 ppm</t>
-  </si>
-  <si>
-    <t>L 0.03 ppm</t>
   </si>
 </sst>
 </file>
@@ -14223,10 +14217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00108A2-6F53-4E74-9C3B-0EA16256D348}">
-  <dimension ref="A1:ED14"/>
+  <dimension ref="A1:ED9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A10" sqref="A10:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17865,2026 +17859,6 @@
       </c>
       <c r="ED9">
         <v>2500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:134" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>712</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10">
-        <v>0</v>
-      </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
-      <c r="CB10">
-        <v>0</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10">
-        <v>0</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>0</v>
-      </c>
-      <c r="CG10">
-        <v>0</v>
-      </c>
-      <c r="CH10">
-        <v>0</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CL10">
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>0</v>
-      </c>
-      <c r="CP10">
-        <v>0</v>
-      </c>
-      <c r="CQ10">
-        <v>0</v>
-      </c>
-      <c r="CR10">
-        <v>0</v>
-      </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
-      <c r="CT10">
-        <v>0</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CW10">
-        <v>0</v>
-      </c>
-      <c r="CX10">
-        <v>0</v>
-      </c>
-      <c r="CY10">
-        <v>0</v>
-      </c>
-      <c r="CZ10">
-        <v>0</v>
-      </c>
-      <c r="DA10">
-        <v>0</v>
-      </c>
-      <c r="DB10">
-        <v>0</v>
-      </c>
-      <c r="DC10">
-        <v>0</v>
-      </c>
-      <c r="DD10">
-        <v>0</v>
-      </c>
-      <c r="DE10">
-        <v>0</v>
-      </c>
-      <c r="DF10">
-        <v>0</v>
-      </c>
-      <c r="DG10">
-        <v>0</v>
-      </c>
-      <c r="DH10">
-        <v>0</v>
-      </c>
-      <c r="DI10">
-        <v>0</v>
-      </c>
-      <c r="DJ10">
-        <v>0</v>
-      </c>
-      <c r="DK10">
-        <v>0</v>
-      </c>
-      <c r="DL10">
-        <v>0</v>
-      </c>
-      <c r="DM10">
-        <v>0</v>
-      </c>
-      <c r="DN10">
-        <v>0</v>
-      </c>
-      <c r="DO10">
-        <v>0</v>
-      </c>
-      <c r="DP10">
-        <v>0</v>
-      </c>
-      <c r="DQ10">
-        <v>0</v>
-      </c>
-      <c r="DR10">
-        <v>0</v>
-      </c>
-      <c r="DS10">
-        <v>0</v>
-      </c>
-      <c r="DT10">
-        <v>0</v>
-      </c>
-      <c r="DU10">
-        <v>0</v>
-      </c>
-      <c r="DV10">
-        <v>0</v>
-      </c>
-      <c r="DW10">
-        <v>0</v>
-      </c>
-      <c r="DX10">
-        <v>0</v>
-      </c>
-      <c r="DY10">
-        <v>0</v>
-      </c>
-      <c r="DZ10">
-        <v>0</v>
-      </c>
-      <c r="EA10">
-        <v>0</v>
-      </c>
-      <c r="EB10">
-        <v>0</v>
-      </c>
-      <c r="EC10">
-        <v>0</v>
-      </c>
-      <c r="ED10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:134" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>711</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>0</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11">
-        <v>0</v>
-      </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
-      <c r="CB11">
-        <v>0</v>
-      </c>
-      <c r="CC11">
-        <v>0</v>
-      </c>
-      <c r="CD11">
-        <v>0</v>
-      </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
-        <v>0</v>
-      </c>
-      <c r="CG11">
-        <v>0</v>
-      </c>
-      <c r="CH11">
-        <v>0</v>
-      </c>
-      <c r="CI11">
-        <v>0</v>
-      </c>
-      <c r="CJ11">
-        <v>0</v>
-      </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
-      </c>
-      <c r="CO11">
-        <v>0</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
-      </c>
-      <c r="CQ11">
-        <v>0</v>
-      </c>
-      <c r="CR11">
-        <v>0</v>
-      </c>
-      <c r="CS11">
-        <v>0</v>
-      </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CW11">
-        <v>0</v>
-      </c>
-      <c r="CX11">
-        <v>0</v>
-      </c>
-      <c r="CY11">
-        <v>0</v>
-      </c>
-      <c r="CZ11">
-        <v>0</v>
-      </c>
-      <c r="DA11">
-        <v>0</v>
-      </c>
-      <c r="DB11">
-        <v>0</v>
-      </c>
-      <c r="DC11">
-        <v>0</v>
-      </c>
-      <c r="DD11">
-        <v>0</v>
-      </c>
-      <c r="DE11">
-        <v>0</v>
-      </c>
-      <c r="DF11">
-        <v>0</v>
-      </c>
-      <c r="DG11">
-        <v>0</v>
-      </c>
-      <c r="DH11">
-        <v>0</v>
-      </c>
-      <c r="DI11">
-        <v>0</v>
-      </c>
-      <c r="DJ11">
-        <v>0</v>
-      </c>
-      <c r="DK11">
-        <v>0</v>
-      </c>
-      <c r="DL11">
-        <v>0</v>
-      </c>
-      <c r="DM11">
-        <v>0</v>
-      </c>
-      <c r="DN11">
-        <v>0</v>
-      </c>
-      <c r="DO11">
-        <v>0</v>
-      </c>
-      <c r="DP11">
-        <v>0</v>
-      </c>
-      <c r="DQ11">
-        <v>0</v>
-      </c>
-      <c r="DR11">
-        <v>0</v>
-      </c>
-      <c r="DS11">
-        <v>0</v>
-      </c>
-      <c r="DT11">
-        <v>0</v>
-      </c>
-      <c r="DU11">
-        <v>0</v>
-      </c>
-      <c r="DV11">
-        <v>0</v>
-      </c>
-      <c r="DW11">
-        <v>0</v>
-      </c>
-      <c r="DX11">
-        <v>0</v>
-      </c>
-      <c r="DY11">
-        <v>0</v>
-      </c>
-      <c r="DZ11">
-        <v>0</v>
-      </c>
-      <c r="EA11">
-        <v>0</v>
-      </c>
-      <c r="EB11">
-        <v>0</v>
-      </c>
-      <c r="EC11">
-        <v>0</v>
-      </c>
-      <c r="ED11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:134" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>710</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
-      </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12">
-        <v>0</v>
-      </c>
-      <c r="CB12">
-        <v>0</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12">
-        <v>0</v>
-      </c>
-      <c r="CE12">
-        <v>0</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
-      </c>
-      <c r="CP12">
-        <v>0</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <v>0</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="CZ12">
-        <v>0</v>
-      </c>
-      <c r="DA12">
-        <v>0</v>
-      </c>
-      <c r="DB12">
-        <v>0</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
-      <c r="DD12">
-        <v>0</v>
-      </c>
-      <c r="DE12">
-        <v>0</v>
-      </c>
-      <c r="DF12">
-        <v>0</v>
-      </c>
-      <c r="DG12">
-        <v>0</v>
-      </c>
-      <c r="DH12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>0</v>
-      </c>
-      <c r="DJ12">
-        <v>0</v>
-      </c>
-      <c r="DK12">
-        <v>0</v>
-      </c>
-      <c r="DL12">
-        <v>0</v>
-      </c>
-      <c r="DM12">
-        <v>0</v>
-      </c>
-      <c r="DN12">
-        <v>0</v>
-      </c>
-      <c r="DO12">
-        <v>0</v>
-      </c>
-      <c r="DP12">
-        <v>0</v>
-      </c>
-      <c r="DQ12">
-        <v>0</v>
-      </c>
-      <c r="DR12">
-        <v>0</v>
-      </c>
-      <c r="DS12">
-        <v>0</v>
-      </c>
-      <c r="DT12">
-        <v>0</v>
-      </c>
-      <c r="DU12">
-        <v>0</v>
-      </c>
-      <c r="DV12">
-        <v>0</v>
-      </c>
-      <c r="DW12">
-        <v>0</v>
-      </c>
-      <c r="DX12">
-        <v>0</v>
-      </c>
-      <c r="DY12">
-        <v>0</v>
-      </c>
-      <c r="DZ12">
-        <v>0</v>
-      </c>
-      <c r="EA12">
-        <v>0</v>
-      </c>
-      <c r="EB12">
-        <v>0</v>
-      </c>
-      <c r="EC12">
-        <v>0</v>
-      </c>
-      <c r="ED12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:134" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13">
-        <v>0</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
-      <c r="CB13">
-        <v>0</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13">
-        <v>0</v>
-      </c>
-      <c r="CE13">
-        <v>0</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
-      </c>
-      <c r="CG13">
-        <v>0</v>
-      </c>
-      <c r="CH13">
-        <v>0</v>
-      </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
-      <c r="CK13">
-        <v>0</v>
-      </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CP13">
-        <v>0</v>
-      </c>
-      <c r="CQ13">
-        <v>0</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CW13">
-        <v>0</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DB13">
-        <v>0</v>
-      </c>
-      <c r="DC13">
-        <v>0</v>
-      </c>
-      <c r="DD13">
-        <v>0</v>
-      </c>
-      <c r="DE13">
-        <v>0</v>
-      </c>
-      <c r="DF13">
-        <v>0</v>
-      </c>
-      <c r="DG13">
-        <v>0</v>
-      </c>
-      <c r="DH13">
-        <v>0</v>
-      </c>
-      <c r="DI13">
-        <v>0</v>
-      </c>
-      <c r="DJ13">
-        <v>0</v>
-      </c>
-      <c r="DK13">
-        <v>0</v>
-      </c>
-      <c r="DL13">
-        <v>0</v>
-      </c>
-      <c r="DM13">
-        <v>0</v>
-      </c>
-      <c r="DN13">
-        <v>0</v>
-      </c>
-      <c r="DO13">
-        <v>0</v>
-      </c>
-      <c r="DP13">
-        <v>0</v>
-      </c>
-      <c r="DQ13">
-        <v>0</v>
-      </c>
-      <c r="DR13">
-        <v>0</v>
-      </c>
-      <c r="DS13">
-        <v>0</v>
-      </c>
-      <c r="DT13">
-        <v>0</v>
-      </c>
-      <c r="DU13">
-        <v>0</v>
-      </c>
-      <c r="DV13">
-        <v>0</v>
-      </c>
-      <c r="DW13">
-        <v>0</v>
-      </c>
-      <c r="DX13">
-        <v>0</v>
-      </c>
-      <c r="DY13">
-        <v>0</v>
-      </c>
-      <c r="DZ13">
-        <v>0</v>
-      </c>
-      <c r="EA13">
-        <v>0</v>
-      </c>
-      <c r="EB13">
-        <v>0</v>
-      </c>
-      <c r="EC13">
-        <v>0</v>
-      </c>
-      <c r="ED13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:134" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-      <c r="BS14">
-        <v>0</v>
-      </c>
-      <c r="BT14">
-        <v>0</v>
-      </c>
-      <c r="BU14">
-        <v>0</v>
-      </c>
-      <c r="BV14">
-        <v>0</v>
-      </c>
-      <c r="BW14">
-        <v>0</v>
-      </c>
-      <c r="BX14">
-        <v>0</v>
-      </c>
-      <c r="BY14">
-        <v>0</v>
-      </c>
-      <c r="BZ14">
-        <v>0</v>
-      </c>
-      <c r="CA14">
-        <v>0</v>
-      </c>
-      <c r="CB14">
-        <v>0</v>
-      </c>
-      <c r="CC14">
-        <v>0</v>
-      </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>0</v>
-      </c>
-      <c r="CF14">
-        <v>0</v>
-      </c>
-      <c r="CG14">
-        <v>0</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
-      </c>
-      <c r="CI14">
-        <v>0</v>
-      </c>
-      <c r="CJ14">
-        <v>0</v>
-      </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
-      </c>
-      <c r="CQ14">
-        <v>0</v>
-      </c>
-      <c r="CR14">
-        <v>0</v>
-      </c>
-      <c r="CS14">
-        <v>0</v>
-      </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>0</v>
-      </c>
-      <c r="CV14">
-        <v>0</v>
-      </c>
-      <c r="CW14">
-        <v>0</v>
-      </c>
-      <c r="CX14">
-        <v>0</v>
-      </c>
-      <c r="CY14">
-        <v>0</v>
-      </c>
-      <c r="CZ14">
-        <v>0</v>
-      </c>
-      <c r="DA14">
-        <v>0</v>
-      </c>
-      <c r="DB14">
-        <v>0</v>
-      </c>
-      <c r="DC14">
-        <v>0</v>
-      </c>
-      <c r="DD14">
-        <v>0</v>
-      </c>
-      <c r="DE14">
-        <v>0</v>
-      </c>
-      <c r="DF14">
-        <v>0</v>
-      </c>
-      <c r="DG14">
-        <v>0</v>
-      </c>
-      <c r="DH14">
-        <v>0</v>
-      </c>
-      <c r="DI14">
-        <v>0</v>
-      </c>
-      <c r="DJ14">
-        <v>0</v>
-      </c>
-      <c r="DK14">
-        <v>0</v>
-      </c>
-      <c r="DL14">
-        <v>0</v>
-      </c>
-      <c r="DM14">
-        <v>0</v>
-      </c>
-      <c r="DN14">
-        <v>0</v>
-      </c>
-      <c r="DO14">
-        <v>0</v>
-      </c>
-      <c r="DP14">
-        <v>0</v>
-      </c>
-      <c r="DQ14">
-        <v>0</v>
-      </c>
-      <c r="DR14">
-        <v>0</v>
-      </c>
-      <c r="DS14">
-        <v>0</v>
-      </c>
-      <c r="DT14">
-        <v>0</v>
-      </c>
-      <c r="DU14">
-        <v>0</v>
-      </c>
-      <c r="DV14">
-        <v>0</v>
-      </c>
-      <c r="DW14">
-        <v>0</v>
-      </c>
-      <c r="DX14">
-        <v>0</v>
-      </c>
-      <c r="DY14">
-        <v>0</v>
-      </c>
-      <c r="DZ14">
-        <v>0</v>
-      </c>
-      <c r="EA14">
-        <v>0</v>
-      </c>
-      <c r="EB14">
-        <v>0</v>
-      </c>
-      <c r="EC14">
-        <v>0</v>
-      </c>
-      <c r="ED14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5AA9A1-60A9-4461-93B0-CC6835635D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095653F-639C-4CC9-87F7-22F19797A3FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Example1" sheetId="1" r:id="rId1"/>
+    <sheet name="Example" sheetId="1" r:id="rId1"/>
+    <sheet name="ExampleAllCompounds" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Concentration</t>
   </si>
@@ -52,6 +53,81 @@
   </si>
   <si>
     <t>Cal.Name</t>
+  </si>
+  <si>
+    <t>TMAO_76.1_59.1_quant</t>
+  </si>
+  <si>
+    <t>Choline_104_60_quant</t>
+  </si>
+  <si>
+    <t>Carnitine_162.1_103_quant</t>
+  </si>
+  <si>
+    <t>Creatine_132.1_90_quant</t>
+  </si>
+  <si>
+    <t>Trigonelline_138_92_quant</t>
+  </si>
+  <si>
+    <t>stachydrin_144_84_quant</t>
+  </si>
+  <si>
+    <t>Histamine_deriv_247_154_quant</t>
+  </si>
+  <si>
+    <t>Taurine_deriv_261_126_quant</t>
+  </si>
+  <si>
+    <t>Carnosine_deriv_362.2_207.03_quant</t>
+  </si>
+  <si>
+    <t>Anserine_deriv_376.1_241.03_quant</t>
+  </si>
+  <si>
+    <t>1.Met.His_deriv_305.1_124.03_quant</t>
+  </si>
+  <si>
+    <t>Hippuric.acid_180.1_105_quant</t>
+  </si>
+  <si>
+    <t>t4.OH.Pro_deriv_267.1_132_quant</t>
+  </si>
+  <si>
+    <t>3.Met.His_deriv_305.1_168.04_quant</t>
+  </si>
+  <si>
+    <t>Phenylacetylglycine..PAG._194.1_91_quant</t>
+  </si>
+  <si>
+    <t>Ethanolamine_deriv_197.1_136.02_quant</t>
+  </si>
+  <si>
+    <t>HArg_deriv_324.1_189.03_quant</t>
+  </si>
+  <si>
+    <t>ADMA_deriv_338.2_203.03_quant</t>
+  </si>
+  <si>
+    <t>SDMA_deriv_338.2_203.02_quant</t>
+  </si>
+  <si>
+    <t>Met.SO_deriv_301.2_237_quant</t>
+  </si>
+  <si>
+    <t>Met_deriv_285.1_150_quant</t>
+  </si>
+  <si>
+    <t>Kynurenine_deriv_344.2_192.02_quant</t>
+  </si>
+  <si>
+    <t>Trp_deriv_340.2_188.03_quant</t>
+  </si>
+  <si>
+    <t>Putrescine_deriv_359.1_266.01_quant</t>
+  </si>
+  <si>
+    <t>Cadaverin_2xderiv_373.1_280.01_quant</t>
   </si>
 </sst>
 </file>
@@ -93,7 +169,28 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -405,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808E7458-B979-4462-BCCD-5C1DCC137099}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,4 +575,664 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAF7D3D-C491-4764-BB66-AE2B39F8CCBE}">
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+      <c r="S5">
+        <v>30</v>
+      </c>
+      <c r="T5">
+        <v>30</v>
+      </c>
+      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>30</v>
+      </c>
+      <c r="X5">
+        <v>30</v>
+      </c>
+      <c r="Y5">
+        <v>30</v>
+      </c>
+      <c r="Z5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+      <c r="X6">
+        <v>100</v>
+      </c>
+      <c r="Y6">
+        <v>100</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>300</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>300</v>
+      </c>
+      <c r="P7">
+        <v>300</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>300</v>
+      </c>
+      <c r="S7">
+        <v>300</v>
+      </c>
+      <c r="T7">
+        <v>300</v>
+      </c>
+      <c r="U7">
+        <v>300</v>
+      </c>
+      <c r="V7">
+        <v>300</v>
+      </c>
+      <c r="W7">
+        <v>300</v>
+      </c>
+      <c r="X7">
+        <v>300</v>
+      </c>
+      <c r="Y7">
+        <v>300</v>
+      </c>
+      <c r="Z7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>1000</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
+        <v>1000</v>
+      </c>
+      <c r="U8">
+        <v>1000</v>
+      </c>
+      <c r="V8">
+        <v>1000</v>
+      </c>
+      <c r="W8">
+        <v>1000</v>
+      </c>
+      <c r="X8">
+        <v>1000</v>
+      </c>
+      <c r="Y8">
+        <v>1000</v>
+      </c>
+      <c r="Z8">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="_qual">
+      <formula>NOT(ISERROR(SEARCH("_qual",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095653F-639C-4CC9-87F7-22F19797A3FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08F25C4-25E2-4A64-AA5F-03D4F7111C16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
@@ -169,17 +169,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -582,7 +572,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08F25C4-25E2-4A64-AA5F-03D4F7111C16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B30D498-A05F-4ECC-8BA0-A6B8EF7603EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
     <sheet name="ExampleAllCompounds" sheetId="2" r:id="rId2"/>
+    <sheet name="Alexandra" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Concentration</t>
   </si>
@@ -128,6 +129,21 @@
   </si>
   <si>
     <t>Cadaverin_2xderiv_373.1_280.01_quant</t>
+  </si>
+  <si>
+    <t>stnd300</t>
+  </si>
+  <si>
+    <t>stnd100</t>
+  </si>
+  <si>
+    <t>stnd30</t>
+  </si>
+  <si>
+    <t>stnd10</t>
+  </si>
+  <si>
+    <t>stnd3</t>
   </si>
 </sst>
 </file>
@@ -571,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAF7D3D-C491-4764-BB66-AE2B39F8CCBE}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -1225,4 +1241,67 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECA82E5-AA2E-4331-9361-163C1C808343}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>3.3333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352FA23F-8AD2-4078-919E-0E2F451AC7E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC31078-B560-4AC8-A276-421B8F0C5CEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
@@ -55,18 +55,6 @@
     <t>Cal.Name</t>
   </si>
   <si>
-    <t>Serine_104_74.1_DP_-50_CE_-15_quan</t>
-  </si>
-  <si>
-    <t>Asparagine_132_88_DP_-20_CE_-20_quan</t>
-  </si>
-  <si>
-    <t>Manol_181.2_89_DP_-70_CE_-20_quan</t>
-  </si>
-  <si>
-    <t>Inol_225.1_44.9_DP_-30_CE_-45_quan</t>
-  </si>
-  <si>
     <t>Lysine_147_84_DP_50_CE_30_quan</t>
   </si>
   <si>
@@ -103,57 +91,21 @@
     <t>MethionineSulfoxide_166.1_74_DP_50_CE_20_quan</t>
   </si>
   <si>
-    <t>1-Methyl-Histidine_170.1_124_DP_55_CE_20_quan</t>
-  </si>
-  <si>
-    <t>3-Methyl-Histidine_170.1_96_DP_60_CE_28_quan</t>
-  </si>
-  <si>
-    <t>Acetyl-Ornitine_175.1_115_DP_50_CE_20_quan</t>
-  </si>
-  <si>
-    <t>Homo-Arginine_189.1_144_DP_60_CE_23_quan</t>
-  </si>
-  <si>
     <t>ADMA_203.2_70_DP_60_CE_40_quan</t>
   </si>
   <si>
     <t>Spermidine_203.2_98_DP_60_CE_35_quan</t>
   </si>
   <si>
-    <t>AC:C2_204.1_85.1_DP_50_CE_27_quan</t>
-  </si>
-  <si>
     <t>Tryptophan_205.1_188.1_DP_50_CE_15_quan</t>
   </si>
   <si>
     <t>Kynurenine_209.1_192_DP_60_CE_15_quan</t>
   </si>
   <si>
-    <t>AC:C3_218.1_85.1_DP_50_CE_29_quan</t>
-  </si>
-  <si>
-    <t>AC:C4_232.2_85.1_DP_50_CE_29_quan</t>
-  </si>
-  <si>
-    <t>AC:C5:1_244.2_85.1_DP_50_CE_31_quan</t>
-  </si>
-  <si>
-    <t>AC:C5_246.2_85.1_DP_50_CE_29_quan</t>
-  </si>
-  <si>
-    <t>AC:C6_260.2_85.1_DP_50_CE_33_quan</t>
-  </si>
-  <si>
-    <t>AC:C5(DC)_276.2_85.1_DP_61_CE_35_quan</t>
-  </si>
-  <si>
     <t>Thyroxine_777.7_731.7_DP_100_CE_35_quan</t>
   </si>
   <si>
-    <t>Isoleucine-Leucine_132.1_69_DP_50_CE_25_quan</t>
-  </si>
-  <si>
     <t>HILIC Cal 8</t>
   </si>
   <si>
@@ -176,6 +128,54 @@
   </si>
   <si>
     <t>HILIC Cal 1</t>
+  </si>
+  <si>
+    <t>Serine_104_74.1_DP_.50_CE_.15_quan</t>
+  </si>
+  <si>
+    <t>Asparagine_132_88_DP_.20_CE_.20_quan</t>
+  </si>
+  <si>
+    <t>Manol_181.2_89_DP_.70_CE_.20_quan</t>
+  </si>
+  <si>
+    <t>Inol_225.1_44.9_DP_.30_CE_.45_quan</t>
+  </si>
+  <si>
+    <t>1.Methyl.Histidine_170.1_124_DP_55_CE_20_quan</t>
+  </si>
+  <si>
+    <t>3.Methyl.Histidine_170.1_96_DP_60_CE_28_quan</t>
+  </si>
+  <si>
+    <t>Acetyl.Ornitine_175.1_115_DP_50_CE_20_quan</t>
+  </si>
+  <si>
+    <t>Homo.Arginine_189.1_144_DP_60_CE_23_quan</t>
+  </si>
+  <si>
+    <t>Isoleucine.Leucine_132.1_69_DP_50_CE_25_quan</t>
+  </si>
+  <si>
+    <t>AC.C2_204.1_85.1_DP_50_CE_27_quan</t>
+  </si>
+  <si>
+    <t>AC.C3_218.1_85.1_DP_50_CE_29_quan</t>
+  </si>
+  <si>
+    <t>AC.C4_232.2_85.1_DP_50_CE_29_quan</t>
+  </si>
+  <si>
+    <t>AC.C5.1_244.2_85.1_DP_50_CE_31_quan</t>
+  </si>
+  <si>
+    <t>AC.C5_246.2_85.1_DP_50_CE_29_quan</t>
+  </si>
+  <si>
+    <t>AC.C6_260.2_85.1_DP_50_CE_33_quan</t>
+  </si>
+  <si>
+    <t>AC.C5(DC)_276.2_85.1_DP_61_CE_35_quan</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,108 +634,108 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>300</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>3000</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2">
         <v>10000</v>

--- a/Dependencies/templates.xlsx
+++ b/Dependencies/templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuantyFeyApplication for Publication\QuantyFey\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338737F0-6DBA-46A1-9B80-2E879D3C52D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE022C4A-9543-4FAB-915A-AA9974700059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C0122184-1F29-479A-8613-AD1D5913AF83}"/>
   </bookViews>
@@ -55,51 +55,6 @@
     <t>Cal.Name</t>
   </si>
   <si>
-    <t>Lysine_147_84_DP_50_CE_30_quan</t>
-  </si>
-  <si>
-    <t>Proline_116.1_70_DP_50_CE_25_quan</t>
-  </si>
-  <si>
-    <t>Ornitine_133.1_70_DP_40_CE_30_quan</t>
-  </si>
-  <si>
-    <t>Trigonelline_138_92_DP_60_CE_30_quan</t>
-  </si>
-  <si>
-    <t>Methionine_150_104.1_DP_60_CE_15_quan</t>
-  </si>
-  <si>
-    <t>Guanine_152_135_DP_60_CE_30_quan</t>
-  </si>
-  <si>
-    <t>Xanthine_153_110_DP_60_CE_30_quan</t>
-  </si>
-  <si>
-    <t>Histidine_156.1_110_DP_60_CE_20_quan</t>
-  </si>
-  <si>
-    <t>Carnitine_162.1_103_DP_60_CE_25_quan</t>
-  </si>
-  <si>
-    <t>Phenylalanine_166.1_120_DP_50_CE_22_quan</t>
-  </si>
-  <si>
-    <t>MethionineSulfoxide_166.1_74_DP_50_CE_20_quan</t>
-  </si>
-  <si>
-    <t>Spermidine_203.2_98_DP_60_CE_35_quan</t>
-  </si>
-  <si>
-    <t>Tryptophan_205.1_188.1_DP_50_CE_15_quan</t>
-  </si>
-  <si>
-    <t>Kynurenine_209.1_192_DP_60_CE_15_quan</t>
-  </si>
-  <si>
-    <t>Thyroxine_777.7_731.7_DP_100_CE_35_quan</t>
-  </si>
-  <si>
     <t>HILIC Cal 8</t>
   </si>
   <si>
@@ -124,55 +79,100 @@
     <t>HILIC Cal 1</t>
   </si>
   <si>
-    <t>Serine_104_74.1_DP_.50_CE_.15_quan</t>
-  </si>
-  <si>
-    <t>Inol_225.1_44.9_DP_.30_CE_.45_quan</t>
-  </si>
-  <si>
-    <t>Acetyl.Ornitine_175.1_115_DP_50_CE_20_quan</t>
-  </si>
-  <si>
-    <t>Homo.Arginine_189.1_144_DP_60_CE_23_quan</t>
-  </si>
-  <si>
-    <t>Isoleucine.Leucine_132.1_69_DP_50_CE_25_quan</t>
-  </si>
-  <si>
-    <t>AC.C2_204.1_85.1_DP_50_CE_27_quan</t>
-  </si>
-  <si>
-    <t>AC.C3_218.1_85.1_DP_50_CE_29_quan</t>
-  </si>
-  <si>
-    <t>AC.C4_232.2_85.1_DP_50_CE_29_quan</t>
-  </si>
-  <si>
-    <t>AC.C5.1_244.2_85.1_DP_50_CE_31_quan</t>
-  </si>
-  <si>
-    <t>AC.C5_246.2_85.1_DP_50_CE_29_quan</t>
-  </si>
-  <si>
-    <t>AC.C6_260.2_85.1_DP_50_CE_33_quan</t>
-  </si>
-  <si>
-    <t>Asparagine_131_114_DP_.50_CE_.15_quan</t>
-  </si>
-  <si>
-    <t>AR.PyroGlu_130_84_DP_60_CE_20_quan</t>
-  </si>
-  <si>
-    <t>X1.Methyl.Histidine_170.1_124_DP_55_CE_20_quan</t>
-  </si>
-  <si>
-    <t>X3.Methyl.Histidine_170.1_96_DP_60_CE_28_quan</t>
-  </si>
-  <si>
-    <t>AR.ADMA_203.2_70_DP_60_CE_40_quan</t>
-  </si>
-  <si>
-    <t>AC.C5.DC._276.2_85.1_DP_61_CE_35_quan</t>
+    <t>Serine_104_74.1_DP_.50_CE_.15_quant</t>
+  </si>
+  <si>
+    <t>Asparagine_131_114_DP_.50_CE_.15_quant</t>
+  </si>
+  <si>
+    <t>Inol_225.1_44.9_DP_.30_CE_.45_quant</t>
+  </si>
+  <si>
+    <t>Lysine_147_84_DP_50_CE_30_quant</t>
+  </si>
+  <si>
+    <t>Proline_116.1_70_DP_50_CE_25_quant</t>
+  </si>
+  <si>
+    <t>AR.PyroGlu_130_84_DP_60_CE_20_quant</t>
+  </si>
+  <si>
+    <t>Ornitine_133.1_70_DP_40_CE_30_quant</t>
+  </si>
+  <si>
+    <t>Trigonelline_138_92_DP_60_CE_30_quant</t>
+  </si>
+  <si>
+    <t>Methionine_150_104.1_DP_60_CE_15_quant</t>
+  </si>
+  <si>
+    <t>Guanine_152_135_DP_60_CE_30_quant</t>
+  </si>
+  <si>
+    <t>Xanthine_153_110_DP_60_CE_30_quant</t>
+  </si>
+  <si>
+    <t>Histidine_156.1_110_DP_60_CE_20_quant</t>
+  </si>
+  <si>
+    <t>Carnitine_162.1_103_DP_60_CE_25_quant</t>
+  </si>
+  <si>
+    <t>Phenylalanine_166.1_120_DP_50_CE_22_quant</t>
+  </si>
+  <si>
+    <t>MethionineSulfoxide_166.1_74_DP_50_CE_20_quant</t>
+  </si>
+  <si>
+    <t>X1.Methyl.Histidine_170.1_124_DP_55_CE_20_quant</t>
+  </si>
+  <si>
+    <t>X3.Methyl.Histidine_170.1_96_DP_60_CE_28_quant</t>
+  </si>
+  <si>
+    <t>Acetyl.Ornitine_175.1_115_DP_50_CE_20_quant</t>
+  </si>
+  <si>
+    <t>Homo.Arginine_189.1_144_DP_60_CE_23_quant</t>
+  </si>
+  <si>
+    <t>AR.ADMA_203.2_70_DP_60_CE_40_quant</t>
+  </si>
+  <si>
+    <t>Spermidine_203.2_98_DP_60_CE_35_quant</t>
+  </si>
+  <si>
+    <t>AC.C2_204.1_85.1_DP_50_CE_27_quant</t>
+  </si>
+  <si>
+    <t>Tryptophan_205.1_188.1_DP_50_CE_15_quant</t>
+  </si>
+  <si>
+    <t>Kynurenine_209.1_192_DP_60_CE_15_quant</t>
+  </si>
+  <si>
+    <t>AC.C3_218.1_85.1_DP_50_CE_29_quant</t>
+  </si>
+  <si>
+    <t>AC.C4_232.2_85.1_DP_50_CE_29_quant</t>
+  </si>
+  <si>
+    <t>AC.C5.1_244.2_85.1_DP_50_CE_31_quant</t>
+  </si>
+  <si>
+    <t>AC.C5_246.2_85.1_DP_50_CE_29_quant</t>
+  </si>
+  <si>
+    <t>AC.C6_260.2_85.1_DP_50_CE_33_quant</t>
+  </si>
+  <si>
+    <t>AC.C5.DC._276.2_85.1_DP_61_CE_35_quant</t>
+  </si>
+  <si>
+    <t>Thyroxine_777.7_731.7_DP_100_CE_35_quant</t>
+  </si>
+  <si>
+    <t>Isoleucine.Leucine_132.1_69_DP_50_CE_25_quant</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,55 +638,55 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>34</v>
@@ -695,49 +695,49 @@
         <v>35</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>30</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>100</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>300</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>1000</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>3000</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>10000</v>
